--- a/SCH-STH/Impact assessments/Malawi/mw_sch_sth_impact_202404_1_site_child.xlsx
+++ b/SCH-STH/Impact assessments/Malawi/mw_sch_sth_impact_202404_1_site_child.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\SCH-STH\Impact assessments\Malawi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69C495AA-6570-4EC5-85DC-662CE2FE92D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{969EF902-9A0C-4CA8-BA57-A9009837AB11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -405,9 +405,6 @@
     <t>Must be two digit between 99 and 1000</t>
   </si>
   <si>
-    <t>school = ${w_school_name}</t>
-  </si>
-  <si>
     <t>w_headteacher</t>
   </si>
   <si>
@@ -937,6 +934,9 @@
   </si>
   <si>
     <t>concat(${w_school_id}, '_', ${p_index})</t>
+  </si>
+  <si>
+    <t>school = ${w_school}</t>
   </si>
 </sst>
 </file>
@@ -1481,10 +1481,10 @@
   <dimension ref="A1:M36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A7" sqref="A7:XFD7"/>
+      <selection pane="bottomRight" activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1549,7 +1549,7 @@
         <v>16</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C2" s="22" t="s">
         <v>38</v>
@@ -1577,10 +1577,10 @@
         <v>11</v>
       </c>
       <c r="B3" s="37" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C3" s="38" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D3" s="38"/>
       <c r="E3" s="39"/>
@@ -1688,7 +1688,7 @@
       </c>
       <c r="K7" s="9"/>
       <c r="L7" s="9" t="s">
-        <v>117</v>
+        <v>294</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -1696,10 +1696,10 @@
         <v>15</v>
       </c>
       <c r="B8" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="C8" s="22" t="s">
         <v>118</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>119</v>
       </c>
       <c r="D8" s="22"/>
       <c r="E8" s="31"/>
@@ -1718,10 +1718,10 @@
         <v>16</v>
       </c>
       <c r="B9" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="C9" s="22" t="s">
         <v>120</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>121</v>
       </c>
       <c r="D9" s="22"/>
       <c r="E9" s="31"/>
@@ -1737,13 +1737,13 @@
     </row>
     <row r="10" spans="1:13" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="B10" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="B10" s="35" t="s">
+      <c r="C10" s="22" t="s">
         <v>123</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>124</v>
       </c>
       <c r="D10" s="22"/>
       <c r="E10" s="31"/>
@@ -1762,10 +1762,10 @@
         <v>16</v>
       </c>
       <c r="B11" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="C11" s="22" t="s">
         <v>125</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>126</v>
       </c>
       <c r="D11" s="22"/>
       <c r="E11" s="31"/>
@@ -1781,16 +1781,16 @@
     </row>
     <row r="12" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="B12" s="35" t="s">
         <v>127</v>
       </c>
-      <c r="B12" s="35" t="s">
+      <c r="C12" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="D12" s="22" t="s">
         <v>129</v>
-      </c>
-      <c r="D12" s="22" t="s">
-        <v>130</v>
       </c>
       <c r="E12" s="31"/>
       <c r="F12" s="31"/>
@@ -1808,10 +1808,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="37" t="s">
+        <v>290</v>
+      </c>
+      <c r="C13" s="38" t="s">
         <v>291</v>
-      </c>
-      <c r="C13" s="38" t="s">
-        <v>292</v>
       </c>
       <c r="D13" s="38"/>
       <c r="E13" s="39"/>
@@ -1849,7 +1849,7 @@
         <v>41</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C15" s="25" t="s">
         <v>62</v>
@@ -2020,7 +2020,7 @@
         <v>98</v>
       </c>
       <c r="I22" s="20" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J22" s="9" t="s">
         <v>9</v>
@@ -2380,13 +2380,13 @@
         <v>55</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="F1" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -2505,182 +2505,182 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="36" t="s">
+        <v>133</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>135</v>
-      </c>
       <c r="C13" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="36" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B14" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>136</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="36" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="36" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="36" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B17" s="32" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C17" s="32" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="36" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B18" s="32" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C18" s="32" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="36" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="36" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="36" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="36" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="36" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D25" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="36" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D26" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="36" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D27" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="36" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D28" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="36" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -2688,1892 +2688,1892 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C31" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E31" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C32" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E32" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C33" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E33" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C34" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E34" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C35" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E35" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C36" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E36" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C37" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E37" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C38" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E38" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C39" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E39" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C40" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E40" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C41" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E41" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C42" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E42" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C43" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E43" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C44" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E44" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C45" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E45" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C46" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E46" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C47" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E47" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C48" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E48" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C49" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E49" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C50" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E50" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C51" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E51" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C52" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E52" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C53" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E53" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C54" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E54" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C55" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E55" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C56" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E56" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C57" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E57" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C58" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E58" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C59" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E59" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C60" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E60" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C61" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E61" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C62" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E62" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C63" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E63" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C64" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E64" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C65" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E65" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C66" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E66" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C67" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E67" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C68" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E68" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C69" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E69" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C70" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E70" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C71" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E71" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C72" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E72" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C73" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E73" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C74" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E74" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C75" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E75" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C76" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E76" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C77" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E77" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C78" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E78" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C79" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E79" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C80" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E80" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C81" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E81" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C82" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E82" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C83" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E83" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C84" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E84" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C85" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E85" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C86" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E86" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C87" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E87" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C88" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E88" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C89" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E89" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C90" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E90" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C91" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E91" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C92" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E92" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C93" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E93" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C94" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E94" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C95" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E95" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C96" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E96" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C97" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E97" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C98" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E98" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C99" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E99" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C100" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E100" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C101" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E101" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C102" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E102" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C103" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E103" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C104" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E104" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C105" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E105" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C106" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E106" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C107" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E107" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C108" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E108" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C109" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E109" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C110" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E110" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C111" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E111" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C112" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E112" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C113" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E113" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C114" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E114" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C115" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E115" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C116" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E116" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C117" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E117" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C118" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E118" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C119" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E119" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C120" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E120" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C121" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E121" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C122" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E122" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C123" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E123" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C124" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E124" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C125" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E125" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C126" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E126" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C127" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E127" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C128" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E128" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C129" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E129" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C130" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E130" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C131" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E131" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C132" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E132" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C133" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E133" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C134" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E134" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C135" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E135" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C136" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E136" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C137" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E137" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C138" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E138" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C139" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E139" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C140" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E140" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C141" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E141" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C142" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E142" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C143" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E143" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C144" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E144" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C145" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E145" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C146" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E146" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C147" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E147" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C148" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E148" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C149" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E149" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C150" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E150" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C151" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E151" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C152" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E152" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C153" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E153" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C154" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E154" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C155" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E155" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C156" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E156" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C157" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E157" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C158" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E158" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C159" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E159" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C160" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E160" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C161" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E161" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C162" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E162" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C163" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E163" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C164" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E164" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C165" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E165" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
@@ -4581,7 +4581,7 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="36" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B167" s="5">
         <v>101</v>
@@ -4590,12 +4590,12 @@
         <v>101</v>
       </c>
       <c r="F167" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="36" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B168" s="5">
         <v>102</v>
@@ -4604,12 +4604,12 @@
         <v>102</v>
       </c>
       <c r="F168" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="36" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B169" s="5">
         <v>103</v>
@@ -4618,12 +4618,12 @@
         <v>103</v>
       </c>
       <c r="F169" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="36" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B170" s="5">
         <v>104</v>
@@ -4632,12 +4632,12 @@
         <v>104</v>
       </c>
       <c r="F170" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="36" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B171" s="5">
         <v>105</v>
@@ -4646,12 +4646,12 @@
         <v>105</v>
       </c>
       <c r="F171" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="36" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B172" s="5">
         <v>106</v>
@@ -4660,12 +4660,12 @@
         <v>106</v>
       </c>
       <c r="F172" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="36" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B173" s="5">
         <v>107</v>
@@ -4674,12 +4674,12 @@
         <v>107</v>
       </c>
       <c r="F173" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="36" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B174" s="5">
         <v>108</v>
@@ -4688,12 +4688,12 @@
         <v>108</v>
       </c>
       <c r="F174" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" s="36" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B175" s="5">
         <v>109</v>
@@ -4702,12 +4702,12 @@
         <v>109</v>
       </c>
       <c r="F175" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="36" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B176" s="5">
         <v>110</v>
@@ -4716,12 +4716,12 @@
         <v>110</v>
       </c>
       <c r="F176" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="36" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B177" s="5">
         <v>111</v>
@@ -4730,12 +4730,12 @@
         <v>111</v>
       </c>
       <c r="F177" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="36" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B178" s="5">
         <v>112</v>
@@ -4744,12 +4744,12 @@
         <v>112</v>
       </c>
       <c r="F178" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="36" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B179" s="5">
         <v>113</v>
@@ -4758,12 +4758,12 @@
         <v>113</v>
       </c>
       <c r="F179" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="36" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B180" s="5">
         <v>114</v>
@@ -4772,12 +4772,12 @@
         <v>114</v>
       </c>
       <c r="F180" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="36" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B181" s="5">
         <v>115</v>
@@ -4786,12 +4786,12 @@
         <v>115</v>
       </c>
       <c r="F181" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="36" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B182" s="5">
         <v>116</v>
@@ -4800,12 +4800,12 @@
         <v>116</v>
       </c>
       <c r="F182" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="36" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B183" s="5">
         <v>117</v>
@@ -4814,12 +4814,12 @@
         <v>117</v>
       </c>
       <c r="F183" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="36" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B184" s="5">
         <v>118</v>
@@ -4828,12 +4828,12 @@
         <v>118</v>
       </c>
       <c r="F184" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="36" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B185" s="5">
         <v>119</v>
@@ -4842,12 +4842,12 @@
         <v>119</v>
       </c>
       <c r="F185" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="36" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B186" s="5">
         <v>120</v>
@@ -4856,12 +4856,12 @@
         <v>120</v>
       </c>
       <c r="F186" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="36" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B187" s="5">
         <v>121</v>
@@ -4870,12 +4870,12 @@
         <v>121</v>
       </c>
       <c r="F187" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" s="36" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B188" s="5">
         <v>122</v>
@@ -4884,12 +4884,12 @@
         <v>122</v>
       </c>
       <c r="F188" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="36" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B189" s="5">
         <v>123</v>
@@ -4898,12 +4898,12 @@
         <v>123</v>
       </c>
       <c r="F189" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="36" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B190" s="5">
         <v>124</v>
@@ -4912,12 +4912,12 @@
         <v>124</v>
       </c>
       <c r="F190" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" s="36" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B191" s="5">
         <v>125</v>
@@ -4926,12 +4926,12 @@
         <v>125</v>
       </c>
       <c r="F191" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" s="36" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B192" s="5">
         <v>126</v>
@@ -4940,12 +4940,12 @@
         <v>126</v>
       </c>
       <c r="F192" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" s="36" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B193" s="5">
         <v>127</v>
@@ -4954,12 +4954,12 @@
         <v>127</v>
       </c>
       <c r="F193" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" s="36" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B194" s="5">
         <v>128</v>
@@ -4968,12 +4968,12 @@
         <v>128</v>
       </c>
       <c r="F194" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" s="36" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B195" s="5">
         <v>129</v>
@@ -4982,12 +4982,12 @@
         <v>129</v>
       </c>
       <c r="F195" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" s="36" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B196" s="5">
         <v>130</v>
@@ -4996,12 +4996,12 @@
         <v>130</v>
       </c>
       <c r="F196" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" s="36" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B197" s="5">
         <v>131</v>
@@ -5010,12 +5010,12 @@
         <v>131</v>
       </c>
       <c r="F197" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" s="36" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B198" s="5">
         <v>132</v>
@@ -5024,12 +5024,12 @@
         <v>132</v>
       </c>
       <c r="F198" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" s="36" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B199" s="5">
         <v>133</v>
@@ -5038,12 +5038,12 @@
         <v>133</v>
       </c>
       <c r="F199" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" s="36" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B200" s="5">
         <v>134</v>
@@ -5052,12 +5052,12 @@
         <v>134</v>
       </c>
       <c r="F200" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" s="36" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B201" s="5">
         <v>135</v>
@@ -5066,12 +5066,12 @@
         <v>135</v>
       </c>
       <c r="F201" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" s="36" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B202" s="5">
         <v>136</v>
@@ -5080,12 +5080,12 @@
         <v>136</v>
       </c>
       <c r="F202" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" s="36" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B203" s="5">
         <v>137</v>
@@ -5094,12 +5094,12 @@
         <v>137</v>
       </c>
       <c r="F203" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" s="36" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B204" s="5">
         <v>138</v>
@@ -5108,12 +5108,12 @@
         <v>138</v>
       </c>
       <c r="F204" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" s="36" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B205" s="5">
         <v>139</v>
@@ -5122,12 +5122,12 @@
         <v>139</v>
       </c>
       <c r="F205" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" s="36" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B206" s="5">
         <v>140</v>
@@ -5136,12 +5136,12 @@
         <v>140</v>
       </c>
       <c r="F206" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" s="36" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B207" s="5">
         <v>141</v>
@@ -5150,12 +5150,12 @@
         <v>141</v>
       </c>
       <c r="F207" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" s="36" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B208" s="5">
         <v>142</v>
@@ -5164,12 +5164,12 @@
         <v>142</v>
       </c>
       <c r="F208" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" s="36" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B209" s="5">
         <v>143</v>
@@ -5178,12 +5178,12 @@
         <v>143</v>
       </c>
       <c r="F209" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" s="36" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B210" s="5">
         <v>144</v>
@@ -5192,12 +5192,12 @@
         <v>144</v>
       </c>
       <c r="F210" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" s="36" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B211" s="5">
         <v>145</v>
@@ -5206,12 +5206,12 @@
         <v>145</v>
       </c>
       <c r="F211" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" s="36" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B212" s="5">
         <v>146</v>
@@ -5220,12 +5220,12 @@
         <v>146</v>
       </c>
       <c r="F212" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" s="36" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B213" s="5">
         <v>147</v>
@@ -5234,12 +5234,12 @@
         <v>147</v>
       </c>
       <c r="F213" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" s="36" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B214" s="5">
         <v>148</v>
@@ -5248,12 +5248,12 @@
         <v>148</v>
       </c>
       <c r="F214" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" s="36" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B215" s="5">
         <v>149</v>
@@ -5262,12 +5262,12 @@
         <v>149</v>
       </c>
       <c r="F215" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" s="36" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B216" s="5">
         <v>150</v>
@@ -5276,12 +5276,12 @@
         <v>150</v>
       </c>
       <c r="F216" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" s="36" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B217" s="5">
         <v>151</v>
@@ -5290,12 +5290,12 @@
         <v>151</v>
       </c>
       <c r="F217" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" s="36" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B218" s="5">
         <v>152</v>
@@ -5304,12 +5304,12 @@
         <v>152</v>
       </c>
       <c r="F218" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" s="36" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B219" s="5">
         <v>153</v>
@@ -5318,12 +5318,12 @@
         <v>153</v>
       </c>
       <c r="F219" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" s="36" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B220" s="5">
         <v>154</v>
@@ -5332,12 +5332,12 @@
         <v>154</v>
       </c>
       <c r="F220" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" s="36" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B221" s="5">
         <v>155</v>
@@ -5346,12 +5346,12 @@
         <v>155</v>
       </c>
       <c r="F221" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" s="36" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B222" s="5">
         <v>156</v>
@@ -5360,12 +5360,12 @@
         <v>156</v>
       </c>
       <c r="F222" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" s="36" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B223" s="5">
         <v>157</v>
@@ -5374,12 +5374,12 @@
         <v>157</v>
       </c>
       <c r="F223" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" s="36" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B224" s="5">
         <v>158</v>
@@ -5388,12 +5388,12 @@
         <v>158</v>
       </c>
       <c r="F224" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" s="36" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B225" s="5">
         <v>159</v>
@@ -5402,12 +5402,12 @@
         <v>159</v>
       </c>
       <c r="F225" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" s="36" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B226" s="5">
         <v>160</v>
@@ -5416,12 +5416,12 @@
         <v>160</v>
       </c>
       <c r="F226" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" s="36" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B227" s="5">
         <v>161</v>
@@ -5430,12 +5430,12 @@
         <v>161</v>
       </c>
       <c r="F227" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" s="36" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B228" s="5">
         <v>162</v>
@@ -5444,12 +5444,12 @@
         <v>162</v>
       </c>
       <c r="F228" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" s="36" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B229" s="5">
         <v>163</v>
@@ -5458,12 +5458,12 @@
         <v>163</v>
       </c>
       <c r="F229" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" s="36" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B230" s="5">
         <v>164</v>
@@ -5472,12 +5472,12 @@
         <v>164</v>
       </c>
       <c r="F230" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" s="36" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B231" s="5">
         <v>165</v>
@@ -5486,12 +5486,12 @@
         <v>165</v>
       </c>
       <c r="F231" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" s="36" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B232" s="5">
         <v>166</v>
@@ -5500,12 +5500,12 @@
         <v>166</v>
       </c>
       <c r="F232" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" s="36" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B233" s="5">
         <v>167</v>
@@ -5514,12 +5514,12 @@
         <v>167</v>
       </c>
       <c r="F233" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" s="36" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B234" s="5">
         <v>168</v>
@@ -5528,12 +5528,12 @@
         <v>168</v>
       </c>
       <c r="F234" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" s="36" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B235" s="5">
         <v>169</v>
@@ -5542,12 +5542,12 @@
         <v>169</v>
       </c>
       <c r="F235" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" s="36" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B236" s="5">
         <v>170</v>
@@ -5556,12 +5556,12 @@
         <v>170</v>
       </c>
       <c r="F236" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" s="36" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B237" s="5">
         <v>171</v>
@@ -5570,12 +5570,12 @@
         <v>171</v>
       </c>
       <c r="F237" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" s="36" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B238" s="5">
         <v>172</v>
@@ -5584,12 +5584,12 @@
         <v>172</v>
       </c>
       <c r="F238" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" s="36" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B239" s="5">
         <v>173</v>
@@ -5598,12 +5598,12 @@
         <v>173</v>
       </c>
       <c r="F239" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" s="36" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B240" s="5">
         <v>174</v>
@@ -5612,12 +5612,12 @@
         <v>174</v>
       </c>
       <c r="F240" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" s="36" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B241" s="5">
         <v>175</v>
@@ -5626,12 +5626,12 @@
         <v>175</v>
       </c>
       <c r="F241" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" s="36" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B242" s="5">
         <v>176</v>
@@ -5640,12 +5640,12 @@
         <v>176</v>
       </c>
       <c r="F242" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" s="36" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B243" s="5">
         <v>177</v>
@@ -5654,12 +5654,12 @@
         <v>177</v>
       </c>
       <c r="F243" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244" s="36" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B244" s="5">
         <v>178</v>
@@ -5668,12 +5668,12 @@
         <v>178</v>
       </c>
       <c r="F244" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" s="36" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B245" s="5">
         <v>179</v>
@@ -5682,12 +5682,12 @@
         <v>179</v>
       </c>
       <c r="F245" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" s="36" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B246" s="5">
         <v>180</v>
@@ -5696,12 +5696,12 @@
         <v>180</v>
       </c>
       <c r="F246" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" s="36" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B247" s="5">
         <v>181</v>
@@ -5710,12 +5710,12 @@
         <v>181</v>
       </c>
       <c r="F247" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248" s="36" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B248" s="5">
         <v>182</v>
@@ -5724,12 +5724,12 @@
         <v>182</v>
       </c>
       <c r="F248" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" s="36" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B249" s="5">
         <v>183</v>
@@ -5738,12 +5738,12 @@
         <v>183</v>
       </c>
       <c r="F249" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" s="36" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B250" s="5">
         <v>184</v>
@@ -5752,12 +5752,12 @@
         <v>184</v>
       </c>
       <c r="F250" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" s="36" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B251" s="5">
         <v>185</v>
@@ -5766,12 +5766,12 @@
         <v>185</v>
       </c>
       <c r="F251" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" s="36" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B252" s="5">
         <v>186</v>
@@ -5780,12 +5780,12 @@
         <v>186</v>
       </c>
       <c r="F252" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" s="36" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B253" s="5">
         <v>187</v>
@@ -5794,12 +5794,12 @@
         <v>187</v>
       </c>
       <c r="F253" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254" s="36" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B254" s="5">
         <v>188</v>
@@ -5808,12 +5808,12 @@
         <v>188</v>
       </c>
       <c r="F254" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255" s="36" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B255" s="5">
         <v>189</v>
@@ -5822,12 +5822,12 @@
         <v>189</v>
       </c>
       <c r="F255" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256" s="36" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B256" s="5">
         <v>190</v>
@@ -5836,12 +5836,12 @@
         <v>190</v>
       </c>
       <c r="F256" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257" s="36" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B257" s="5">
         <v>191</v>
@@ -5850,12 +5850,12 @@
         <v>191</v>
       </c>
       <c r="F257" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258" s="36" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B258" s="5">
         <v>192</v>
@@ -5864,12 +5864,12 @@
         <v>192</v>
       </c>
       <c r="F258" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259" s="36" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B259" s="5">
         <v>193</v>
@@ -5878,12 +5878,12 @@
         <v>193</v>
       </c>
       <c r="F259" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260" s="36" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B260" s="5">
         <v>194</v>
@@ -5892,12 +5892,12 @@
         <v>194</v>
       </c>
       <c r="F260" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261" s="36" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B261" s="5">
         <v>195</v>
@@ -5906,12 +5906,12 @@
         <v>195</v>
       </c>
       <c r="F261" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262" s="36" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B262" s="5">
         <v>196</v>
@@ -5920,12 +5920,12 @@
         <v>196</v>
       </c>
       <c r="F262" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263" s="36" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B263" s="5">
         <v>197</v>
@@ -5934,12 +5934,12 @@
         <v>197</v>
       </c>
       <c r="F263" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264" s="36" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B264" s="5">
         <v>198</v>
@@ -5948,12 +5948,12 @@
         <v>198</v>
       </c>
       <c r="F264" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265" s="36" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B265" s="5">
         <v>199</v>
@@ -5962,12 +5962,12 @@
         <v>199</v>
       </c>
       <c r="F265" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266" s="36" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B266" s="5">
         <v>200</v>
@@ -5976,12 +5976,12 @@
         <v>200</v>
       </c>
       <c r="F266" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267" s="36" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B267" s="5">
         <v>201</v>
@@ -5990,12 +5990,12 @@
         <v>201</v>
       </c>
       <c r="F267" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268" s="36" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B268" s="5">
         <v>202</v>
@@ -6004,12 +6004,12 @@
         <v>202</v>
       </c>
       <c r="F268" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269" s="36" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B269" s="5">
         <v>203</v>
@@ -6018,12 +6018,12 @@
         <v>203</v>
       </c>
       <c r="F269" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270" s="36" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B270" s="5">
         <v>204</v>
@@ -6032,12 +6032,12 @@
         <v>204</v>
       </c>
       <c r="F270" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271" s="36" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B271" s="5">
         <v>205</v>
@@ -6046,12 +6046,12 @@
         <v>205</v>
       </c>
       <c r="F271" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272" s="36" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B272" s="5">
         <v>206</v>
@@ -6060,12 +6060,12 @@
         <v>206</v>
       </c>
       <c r="F272" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273" s="36" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B273" s="5">
         <v>207</v>
@@ -6074,12 +6074,12 @@
         <v>207</v>
       </c>
       <c r="F273" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274" s="36" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B274" s="5">
         <v>208</v>
@@ -6088,12 +6088,12 @@
         <v>208</v>
       </c>
       <c r="F274" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275" s="36" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B275" s="5">
         <v>209</v>
@@ -6102,12 +6102,12 @@
         <v>209</v>
       </c>
       <c r="F275" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276" s="36" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B276" s="5">
         <v>210</v>
@@ -6116,12 +6116,12 @@
         <v>210</v>
       </c>
       <c r="F276" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277" s="36" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B277" s="5">
         <v>211</v>
@@ -6130,12 +6130,12 @@
         <v>211</v>
       </c>
       <c r="F277" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278" s="36" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B278" s="5">
         <v>212</v>
@@ -6144,12 +6144,12 @@
         <v>212</v>
       </c>
       <c r="F278" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279" s="36" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B279" s="5">
         <v>213</v>
@@ -6158,12 +6158,12 @@
         <v>213</v>
       </c>
       <c r="F279" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280" s="36" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B280" s="5">
         <v>214</v>
@@ -6172,12 +6172,12 @@
         <v>214</v>
       </c>
       <c r="F280" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281" s="36" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B281" s="5">
         <v>215</v>
@@ -6186,12 +6186,12 @@
         <v>215</v>
       </c>
       <c r="F281" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282" s="36" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B282" s="5">
         <v>216</v>
@@ -6200,12 +6200,12 @@
         <v>216</v>
       </c>
       <c r="F282" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283" s="36" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B283" s="5">
         <v>217</v>
@@ -6214,12 +6214,12 @@
         <v>217</v>
       </c>
       <c r="F283" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284" s="36" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B284" s="5">
         <v>218</v>
@@ -6228,12 +6228,12 @@
         <v>218</v>
       </c>
       <c r="F284" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285" s="36" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B285" s="5">
         <v>219</v>
@@ -6242,12 +6242,12 @@
         <v>219</v>
       </c>
       <c r="F285" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286" s="36" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B286" s="5">
         <v>220</v>
@@ -6256,12 +6256,12 @@
         <v>220</v>
       </c>
       <c r="F286" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287" s="36" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B287" s="5">
         <v>221</v>
@@ -6270,12 +6270,12 @@
         <v>221</v>
       </c>
       <c r="F287" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A288" s="36" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B288" s="5">
         <v>222</v>
@@ -6284,12 +6284,12 @@
         <v>222</v>
       </c>
       <c r="F288" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A289" s="36" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B289" s="5">
         <v>223</v>
@@ -6298,12 +6298,12 @@
         <v>223</v>
       </c>
       <c r="F289" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290" s="36" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B290" s="5">
         <v>224</v>
@@ -6312,12 +6312,12 @@
         <v>224</v>
       </c>
       <c r="F290" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A291" s="36" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B291" s="5">
         <v>225</v>
@@ -6326,12 +6326,12 @@
         <v>225</v>
       </c>
       <c r="F291" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A292" s="36" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B292" s="5">
         <v>226</v>
@@ -6340,12 +6340,12 @@
         <v>226</v>
       </c>
       <c r="F292" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A293" s="36" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B293" s="5">
         <v>227</v>
@@ -6354,12 +6354,12 @@
         <v>227</v>
       </c>
       <c r="F293" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A294" s="36" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B294" s="5">
         <v>228</v>
@@ -6368,12 +6368,12 @@
         <v>228</v>
       </c>
       <c r="F294" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A295" s="36" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B295" s="5">
         <v>229</v>
@@ -6382,12 +6382,12 @@
         <v>229</v>
       </c>
       <c r="F295" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A296" s="36" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B296" s="5">
         <v>230</v>
@@ -6396,12 +6396,12 @@
         <v>230</v>
       </c>
       <c r="F296" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297" s="36" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B297" s="5">
         <v>231</v>
@@ -6410,12 +6410,12 @@
         <v>231</v>
       </c>
       <c r="F297" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A298" s="36" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B298" s="5">
         <v>232</v>
@@ -6424,12 +6424,12 @@
         <v>232</v>
       </c>
       <c r="F298" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A299" s="36" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B299" s="5">
         <v>233</v>
@@ -6438,12 +6438,12 @@
         <v>233</v>
       </c>
       <c r="F299" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A300" s="36" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B300" s="5">
         <v>234</v>
@@ -6452,12 +6452,12 @@
         <v>234</v>
       </c>
       <c r="F300" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A301" s="36" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B301" s="5">
         <v>235</v>
@@ -6466,7 +6466,7 @@
         <v>235</v>
       </c>
       <c r="F301" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.25">
@@ -7009,10 +7009,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C2" t="s">
         <v>32</v>

--- a/SCH-STH/Impact assessments/Malawi/mw_sch_sth_impact_202404_1_site_child.xlsx
+++ b/SCH-STH/Impact assessments/Malawi/mw_sch_sth_impact_202404_1_site_child.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\SCH-STH\Impact assessments\Malawi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{969EF902-9A0C-4CA8-BA57-A9009837AB11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AC88850-7CBD-441E-A1B1-955D90C10001}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="297">
   <si>
     <t>type</t>
   </si>
@@ -937,6 +937,12 @@
   </si>
   <si>
     <t>school = ${w_school}</t>
+  </si>
+  <si>
+    <t>CHIMWANG OMBE</t>
+  </si>
+  <si>
+    <t>M BWABWA</t>
   </si>
 </sst>
 </file>
@@ -1480,11 +1486,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L7" sqref="L7"/>
+      <selection pane="bottomRight" activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2357,9 +2363,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F431"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A13" sqref="A13:XFD301"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C113" sqref="C113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3237,7 +3243,7 @@
         <v>132</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>188</v>
+        <v>295</v>
       </c>
       <c r="C70" t="s">
         <v>188</v>
@@ -3797,7 +3803,7 @@
         <v>132</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>228</v>
+        <v>296</v>
       </c>
       <c r="C110" t="s">
         <v>228</v>
@@ -6200,7 +6206,7 @@
         <v>216</v>
       </c>
       <c r="F282" t="s">
-        <v>228</v>
+        <v>296</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.25">
@@ -6382,7 +6388,7 @@
         <v>229</v>
       </c>
       <c r="F295" t="s">
-        <v>188</v>
+        <v>295</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.25">

--- a/SCH-STH/Impact assessments/Malawi/mw_sch_sth_impact_202404_1_site_child.xlsx
+++ b/SCH-STH/Impact assessments/Malawi/mw_sch_sth_impact_202404_1_site_child.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\SCH-STH\Impact assessments\Malawi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AC88850-7CBD-441E-A1B1-955D90C10001}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B28A66C3-AA8C-4E1B-9B7B-528717203468}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -909,12 +909,6 @@
     <t>school_id</t>
   </si>
   <si>
-    <t>mw_sch_sth_impact_202404_1_site_child</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(2024 Apr) - 1. SCH/STH – Site &amp; Participant Registration </t>
-  </si>
-  <si>
     <t>Site Registration</t>
   </si>
   <si>
@@ -930,9 +924,6 @@
     <t>Participant registration</t>
   </si>
   <si>
-    <t>mw_sch_sth_p_202404</t>
-  </si>
-  <si>
     <t>concat(${w_school_id}, '_', ${p_index})</t>
   </si>
   <si>
@@ -943,6 +934,15 @@
   </si>
   <si>
     <t>M BWABWA</t>
+  </si>
+  <si>
+    <t>(2024 Apr) - 1. SCH/STH – Site &amp; Participant Registration V2</t>
+  </si>
+  <si>
+    <t>mw_sch_sth_ia_202404_1_site_child_v2</t>
+  </si>
+  <si>
+    <t>mw_sch_p_202404_v2</t>
   </si>
 </sst>
 </file>
@@ -1090,15 +1090,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1139,9 +1136,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1487,17 +1481,17 @@
   <dimension ref="A1:M36"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K16" sqref="K16"/>
+      <selection pane="bottomRight" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="19.375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="47.5" style="4" customWidth="1"/>
+    <col min="1" max="1" width="19.625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="24.75" style="3" customWidth="1"/>
+    <col min="3" max="3" width="47.5" style="3" customWidth="1"/>
     <col min="4" max="4" width="47.375" customWidth="1"/>
     <col min="5" max="5" width="12.625" customWidth="1"/>
     <col min="6" max="6" width="16.875" customWidth="1"/>
@@ -1509,849 +1503,849 @@
     <col min="12" max="12" width="36.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="13" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:13" s="12" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="L1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="M1" s="12" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+    <row r="2" spans="1:13" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
+        <v>287</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+    </row>
+    <row r="3" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>286</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>285</v>
+      </c>
+      <c r="D3" s="36"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="38"/>
+    </row>
+    <row r="4" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="D4" s="20"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+    </row>
+    <row r="5" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="20"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="D6" s="20"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" s="20"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="D8" s="20"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+    </row>
+    <row r="9" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="D9" s="20"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+    </row>
+    <row r="10" spans="1:13" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="B10" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="D10" s="20"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+    </row>
+    <row r="11" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="D11" s="20"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+    </row>
+    <row r="12" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+    </row>
+    <row r="13" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="35" t="s">
+        <v>288</v>
+      </c>
+      <c r="C13" s="36" t="s">
         <v>289</v>
       </c>
-      <c r="C2" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="G2" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9" t="s">
+      <c r="D13" s="36"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="38"/>
+    </row>
+    <row r="14" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+    </row>
+    <row r="15" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>296</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="23"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+    </row>
+    <row r="16" spans="1:13" s="12" customFormat="1" ht="299.25" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+    </row>
+    <row r="17" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="7"/>
+    </row>
+    <row r="18" spans="1:13" s="12" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="7"/>
+    </row>
+    <row r="19" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-    </row>
-    <row r="3" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
+      <c r="K19" s="8"/>
+      <c r="L19" s="7"/>
+    </row>
+    <row r="20" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K20" s="8"/>
+      <c r="L20" s="7"/>
+    </row>
+    <row r="21" spans="1:13" s="12" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="9"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="G21" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="H21" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+    </row>
+    <row r="22" spans="1:13" s="12" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" s="8"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="I22" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" s="12" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" s="9"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="G23" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="H23" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="I23" s="7"/>
+      <c r="J23" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+    </row>
+    <row r="24" spans="1:13" s="12" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D24" s="9"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="I24" s="7"/>
+      <c r="J24" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+    </row>
+    <row r="25" spans="1:13" s="12" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="I25" s="7"/>
+      <c r="J25" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+    </row>
+    <row r="26" spans="1:13" s="12" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D26" s="9"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="I26" s="7"/>
+      <c r="J26" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+    </row>
+    <row r="27" spans="1:13" s="12" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D27" s="9"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="I27" s="7"/>
+      <c r="J27" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+    </row>
+    <row r="28" spans="1:13" s="12" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D28" s="9"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="I28" s="7"/>
+      <c r="J28" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+    </row>
+    <row r="29" spans="1:13" s="12" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A29" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D29" s="9"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="I29" s="7"/>
+      <c r="J29" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+    </row>
+    <row r="30" spans="1:13" s="12" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D30" s="9"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="I30" s="7"/>
+      <c r="J30" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+    </row>
+    <row r="31" spans="1:13" s="12" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D31" s="9"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="I31" s="7"/>
+      <c r="J31" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="37" t="s">
-        <v>288</v>
-      </c>
-      <c r="C3" s="38" t="s">
-        <v>287</v>
-      </c>
-      <c r="D3" s="38"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="40"/>
-    </row>
-    <row r="4" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="B4" s="35" t="s">
-        <v>105</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-    </row>
-    <row r="5" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="B5" s="35" t="s">
-        <v>108</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="B6" s="35" t="s">
-        <v>111</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="B7" s="35" t="s">
-        <v>114</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31" t="s">
-        <v>115</v>
-      </c>
-      <c r="G7" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
+      <c r="B32" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D32" s="11"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="I32" s="10"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="D8" s="22"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-    </row>
-    <row r="9" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="35" t="s">
-        <v>119</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="D9" s="22"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-    </row>
-    <row r="10" spans="1:13" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="B10" s="35" t="s">
-        <v>122</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="D10" s="22"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-    </row>
-    <row r="11" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="35" t="s">
-        <v>124</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="D11" s="22"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-    </row>
-    <row r="12" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="B12" s="35" t="s">
-        <v>127</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="D12" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-    </row>
-    <row r="13" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="37" t="s">
-        <v>290</v>
-      </c>
-      <c r="C13" s="38" t="s">
-        <v>291</v>
-      </c>
-      <c r="D13" s="38"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="40"/>
-    </row>
-    <row r="14" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-    </row>
-    <row r="15" spans="1:13" s="13" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" s="34" t="s">
-        <v>292</v>
-      </c>
-      <c r="C15" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="D15" s="25"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="24"/>
-    </row>
-    <row r="16" spans="1:13" s="13" customFormat="1" ht="299.25" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="D16" s="10"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-    </row>
-    <row r="17" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="8"/>
-    </row>
-    <row r="18" spans="1:13" s="13" customFormat="1" ht="63" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="8"/>
-    </row>
-    <row r="19" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="K19" s="9"/>
-      <c r="L19" s="8"/>
-    </row>
-    <row r="20" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="K20" s="9"/>
-      <c r="L20" s="8"/>
-    </row>
-    <row r="21" spans="1:13" s="13" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="D21" s="10"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="G21" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="H21" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-    </row>
-    <row r="22" spans="1:13" s="13" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C22" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="E22" s="9"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="I22" s="20" t="s">
-        <v>293</v>
-      </c>
-      <c r="J22" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" s="13" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="D23" s="10"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="G23" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="H23" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="I23" s="8"/>
-      <c r="J23" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-    </row>
-    <row r="24" spans="1:13" s="13" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="D24" s="10"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="I24" s="8"/>
-      <c r="J24" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-    </row>
-    <row r="25" spans="1:13" s="13" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="I25" s="8"/>
-      <c r="J25" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-    </row>
-    <row r="26" spans="1:13" s="13" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="D26" s="10"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="I26" s="8"/>
-      <c r="J26" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-    </row>
-    <row r="27" spans="1:13" s="13" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="B27" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="D27" s="10"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="I27" s="8"/>
-      <c r="J27" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-    </row>
-    <row r="28" spans="1:13" s="13" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B28" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="D28" s="10"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="I28" s="8"/>
-      <c r="J28" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
-    </row>
-    <row r="29" spans="1:13" s="13" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A29" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="B29" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="D29" s="10"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="I29" s="8"/>
-      <c r="J29" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
-    </row>
-    <row r="30" spans="1:13" s="13" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B30" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="D30" s="10"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="I30" s="8"/>
-      <c r="J30" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
-    </row>
-    <row r="31" spans="1:13" s="13" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B31" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="D31" s="10"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="I31" s="8"/>
-      <c r="J31" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
-    </row>
-    <row r="32" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="B32" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C32" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="D32" s="12"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="I32" s="11"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="11"/>
-      <c r="L32" s="11"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B33" s="16" t="s">
+      <c r="B33" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C33" s="17" t="s">
+      <c r="C33" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="D33" s="12"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="11"/>
-      <c r="K33" s="11"/>
-      <c r="L33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="26" t="s">
+      <c r="A34" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="B34" s="26"/>
-      <c r="C34" s="27"/>
-      <c r="D34" s="28"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="28"/>
-      <c r="H34" s="30"/>
-      <c r="I34" s="29"/>
-      <c r="J34" s="29"/>
-      <c r="K34" s="29"/>
-      <c r="L34" s="29"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="27"/>
+      <c r="K34" s="27"/>
+      <c r="L34" s="27"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="16" t="s">
+      <c r="A35" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B35" s="16" t="s">
+      <c r="B35" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C35" s="17"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="11"/>
-      <c r="J35" s="11"/>
-      <c r="K35" s="11"/>
-      <c r="L35" s="11"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="9" t="s">
+      <c r="A36" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B36" s="16" t="s">
+      <c r="B36" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C36" s="17"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="11"/>
-      <c r="K36" s="11"/>
-      <c r="L36" s="11"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -2363,26 +2357,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F431"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C113" sqref="C113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.5" customWidth="1"/>
-    <col min="2" max="2" width="39.5" style="5" customWidth="1"/>
-    <col min="3" max="3" width="46.125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="39.5" style="4" customWidth="1"/>
+    <col min="3" max="3" width="46.125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>55</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -2396,237 +2390,237 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="19" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="19" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="9" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="9" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="9" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="9" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="9" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="33" t="s">
+      <c r="A11" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="9" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="C12" s="10"/>
+      <c r="A12" s="4"/>
+      <c r="C12" s="9"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="36" t="s">
+      <c r="A13" s="34" t="s">
         <v>133</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="4" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="36" t="s">
+      <c r="A14" s="34" t="s">
         <v>133</v>
       </c>
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="36" t="s">
+      <c r="A15" s="34" t="s">
         <v>133</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="4" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="36" t="s">
+      <c r="A16" s="34" t="s">
         <v>133</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="4" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="36" t="s">
+      <c r="A17" s="34" t="s">
         <v>133</v>
       </c>
-      <c r="B17" s="32" t="s">
+      <c r="B17" s="30" t="s">
         <v>139</v>
       </c>
-      <c r="C17" s="32" t="s">
+      <c r="C17" s="30" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="36" t="s">
+      <c r="A18" s="34" t="s">
         <v>133</v>
       </c>
-      <c r="B18" s="32" t="s">
+      <c r="B18" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="C18" s="32" t="s">
+      <c r="C18" s="30" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="36" t="s">
+      <c r="A19" s="34" t="s">
         <v>133</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="4" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="36" t="s">
+      <c r="A21" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="4" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="36" t="s">
+      <c r="A22" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="4" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="36" t="s">
+      <c r="A23" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="4" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="36" t="s">
+      <c r="A25" s="34" t="s">
         <v>131</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="4" t="s">
         <v>145</v>
       </c>
       <c r="D25" t="s">
@@ -2634,13 +2628,13 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="36" t="s">
+      <c r="A26" s="34" t="s">
         <v>131</v>
       </c>
-      <c r="B26" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="C26" s="5" t="s">
+      <c r="B26" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>146</v>
       </c>
       <c r="D26" t="s">
@@ -2648,13 +2642,13 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="36" t="s">
+      <c r="A27" s="34" t="s">
         <v>131</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="4" t="s">
         <v>147</v>
       </c>
       <c r="D27" t="s">
@@ -2662,13 +2656,13 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="36" t="s">
+      <c r="A28" s="34" t="s">
         <v>131</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="4" t="s">
         <v>148</v>
       </c>
       <c r="D28" t="s">
@@ -2676,13 +2670,13 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="36" t="s">
+      <c r="A29" s="34" t="s">
         <v>131</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="4" t="s">
         <v>149</v>
       </c>
       <c r="D29" t="s">
@@ -2690,13 +2684,13 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="36"/>
+      <c r="A30" s="34"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="B31" s="5" t="s">
+      <c r="A31" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>150</v>
       </c>
       <c r="C31" t="s">
@@ -2707,10 +2701,10 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="B32" s="5" t="s">
+      <c r="A32" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B32" s="4" t="s">
         <v>151</v>
       </c>
       <c r="C32" t="s">
@@ -2721,10 +2715,10 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="B33" s="5" t="s">
+      <c r="A33" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B33" s="4" t="s">
         <v>152</v>
       </c>
       <c r="C33" t="s">
@@ -2735,10 +2729,10 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="B34" s="5" t="s">
+      <c r="A34" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B34" s="4" t="s">
         <v>153</v>
       </c>
       <c r="C34" t="s">
@@ -2749,10 +2743,10 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="B35" s="5" t="s">
+      <c r="A35" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B35" s="4" t="s">
         <v>154</v>
       </c>
       <c r="C35" t="s">
@@ -2763,10 +2757,10 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="B36" s="5" t="s">
+      <c r="A36" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B36" s="4" t="s">
         <v>155</v>
       </c>
       <c r="C36" t="s">
@@ -2777,10 +2771,10 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="B37" s="5" t="s">
+      <c r="A37" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B37" s="4" t="s">
         <v>156</v>
       </c>
       <c r="C37" t="s">
@@ -2791,10 +2785,10 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="B38" s="5" t="s">
+      <c r="A38" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B38" s="4" t="s">
         <v>157</v>
       </c>
       <c r="C38" t="s">
@@ -2805,10 +2799,10 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="B39" s="5" t="s">
+      <c r="A39" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B39" s="4" t="s">
         <v>158</v>
       </c>
       <c r="C39" t="s">
@@ -2819,10 +2813,10 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="B40" s="5" t="s">
+      <c r="A40" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B40" s="4" t="s">
         <v>159</v>
       </c>
       <c r="C40" t="s">
@@ -2833,10 +2827,10 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="B41" s="5" t="s">
+      <c r="A41" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B41" s="4" t="s">
         <v>160</v>
       </c>
       <c r="C41" t="s">
@@ -2847,10 +2841,10 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="B42" s="5" t="s">
+      <c r="A42" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B42" s="4" t="s">
         <v>161</v>
       </c>
       <c r="C42" t="s">
@@ -2861,10 +2855,10 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="B43" s="5" t="s">
+      <c r="A43" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B43" s="4" t="s">
         <v>162</v>
       </c>
       <c r="C43" t="s">
@@ -2875,10 +2869,10 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="B44" s="5" t="s">
+      <c r="A44" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B44" s="4" t="s">
         <v>163</v>
       </c>
       <c r="C44" t="s">
@@ -2889,10 +2883,10 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="B45" s="5" t="s">
+      <c r="A45" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B45" s="4" t="s">
         <v>164</v>
       </c>
       <c r="C45" t="s">
@@ -2903,10 +2897,10 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="B46" s="5" t="s">
+      <c r="A46" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B46" s="4" t="s">
         <v>165</v>
       </c>
       <c r="C46" t="s">
@@ -2917,10 +2911,10 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="B47" s="5" t="s">
+      <c r="A47" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B47" s="4" t="s">
         <v>166</v>
       </c>
       <c r="C47" t="s">
@@ -2931,10 +2925,10 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="B48" s="5" t="s">
+      <c r="A48" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B48" s="4" t="s">
         <v>148</v>
       </c>
       <c r="C48" t="s">
@@ -2945,10 +2939,10 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="B49" s="5" t="s">
+      <c r="A49" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B49" s="4" t="s">
         <v>167</v>
       </c>
       <c r="C49" t="s">
@@ -2959,10 +2953,10 @@
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="B50" s="5" t="s">
+      <c r="A50" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B50" s="4" t="s">
         <v>168</v>
       </c>
       <c r="C50" t="s">
@@ -2973,10 +2967,10 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="B51" s="5" t="s">
+      <c r="A51" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B51" s="4" t="s">
         <v>169</v>
       </c>
       <c r="C51" t="s">
@@ -2987,10 +2981,10 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="B52" s="5" t="s">
+      <c r="A52" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B52" s="4" t="s">
         <v>170</v>
       </c>
       <c r="C52" t="s">
@@ -3001,10 +2995,10 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="B53" s="5" t="s">
+      <c r="A53" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B53" s="4" t="s">
         <v>171</v>
       </c>
       <c r="C53" t="s">
@@ -3015,10 +3009,10 @@
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="B54" s="5" t="s">
+      <c r="A54" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B54" s="4" t="s">
         <v>172</v>
       </c>
       <c r="C54" t="s">
@@ -3029,10 +3023,10 @@
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="B55" s="5" t="s">
+      <c r="A55" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B55" s="4" t="s">
         <v>173</v>
       </c>
       <c r="C55" t="s">
@@ -3043,10 +3037,10 @@
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="B56" s="5" t="s">
+      <c r="A56" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B56" s="4" t="s">
         <v>174</v>
       </c>
       <c r="C56" t="s">
@@ -3057,10 +3051,10 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="B57" s="5" t="s">
+      <c r="A57" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B57" s="4" t="s">
         <v>175</v>
       </c>
       <c r="C57" t="s">
@@ -3071,10 +3065,10 @@
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="B58" s="5" t="s">
+      <c r="A58" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B58" s="4" t="s">
         <v>176</v>
       </c>
       <c r="C58" t="s">
@@ -3085,10 +3079,10 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="B59" s="5" t="s">
+      <c r="A59" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B59" s="4" t="s">
         <v>177</v>
       </c>
       <c r="C59" t="s">
@@ -3099,10 +3093,10 @@
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="B60" s="5" t="s">
+      <c r="A60" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B60" s="4" t="s">
         <v>178</v>
       </c>
       <c r="C60" t="s">
@@ -3113,10 +3107,10 @@
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="B61" s="5" t="s">
+      <c r="A61" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B61" s="4" t="s">
         <v>179</v>
       </c>
       <c r="C61" t="s">
@@ -3127,10 +3121,10 @@
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="B62" s="5" t="s">
+      <c r="A62" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B62" s="4" t="s">
         <v>180</v>
       </c>
       <c r="C62" t="s">
@@ -3141,10 +3135,10 @@
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="B63" s="5" t="s">
+      <c r="A63" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B63" s="4" t="s">
         <v>181</v>
       </c>
       <c r="C63" t="s">
@@ -3155,10 +3149,10 @@
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="B64" s="5" t="s">
+      <c r="A64" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B64" s="4" t="s">
         <v>182</v>
       </c>
       <c r="C64" t="s">
@@ -3169,10 +3163,10 @@
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="B65" s="5" t="s">
+      <c r="A65" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B65" s="4" t="s">
         <v>183</v>
       </c>
       <c r="C65" t="s">
@@ -3183,10 +3177,10 @@
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="B66" s="5" t="s">
+      <c r="A66" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B66" s="4" t="s">
         <v>184</v>
       </c>
       <c r="C66" t="s">
@@ -3197,10 +3191,10 @@
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="B67" s="5" t="s">
+      <c r="A67" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B67" s="4" t="s">
         <v>185</v>
       </c>
       <c r="C67" t="s">
@@ -3211,10 +3205,10 @@
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="B68" s="5" t="s">
+      <c r="A68" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B68" s="4" t="s">
         <v>186</v>
       </c>
       <c r="C68" t="s">
@@ -3225,10 +3219,10 @@
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="B69" s="5" t="s">
+      <c r="A69" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B69" s="4" t="s">
         <v>187</v>
       </c>
       <c r="C69" t="s">
@@ -3239,11 +3233,11 @@
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="B70" s="5" t="s">
-        <v>295</v>
+      <c r="A70" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>292</v>
       </c>
       <c r="C70" t="s">
         <v>188</v>
@@ -3253,10 +3247,10 @@
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="B71" s="5" t="s">
+      <c r="A71" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B71" s="4" t="s">
         <v>189</v>
       </c>
       <c r="C71" t="s">
@@ -3267,10 +3261,10 @@
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="B72" s="5" t="s">
+      <c r="A72" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B72" s="4" t="s">
         <v>190</v>
       </c>
       <c r="C72" t="s">
@@ -3281,10 +3275,10 @@
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="B73" s="5" t="s">
+      <c r="A73" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B73" s="4" t="s">
         <v>191</v>
       </c>
       <c r="C73" t="s">
@@ -3295,10 +3289,10 @@
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="B74" s="5" t="s">
+      <c r="A74" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B74" s="4" t="s">
         <v>192</v>
       </c>
       <c r="C74" t="s">
@@ -3309,10 +3303,10 @@
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="B75" s="5" t="s">
+      <c r="A75" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B75" s="4" t="s">
         <v>193</v>
       </c>
       <c r="C75" t="s">
@@ -3323,10 +3317,10 @@
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="B76" s="5" t="s">
+      <c r="A76" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B76" s="4" t="s">
         <v>194</v>
       </c>
       <c r="C76" t="s">
@@ -3337,10 +3331,10 @@
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="B77" s="5" t="s">
+      <c r="A77" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B77" s="4" t="s">
         <v>195</v>
       </c>
       <c r="C77" t="s">
@@ -3351,10 +3345,10 @@
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="B78" s="5" t="s">
+      <c r="A78" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B78" s="4" t="s">
         <v>196</v>
       </c>
       <c r="C78" t="s">
@@ -3365,10 +3359,10 @@
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="B79" s="5" t="s">
+      <c r="A79" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B79" s="4" t="s">
         <v>197</v>
       </c>
       <c r="C79" t="s">
@@ -3379,10 +3373,10 @@
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="B80" s="5" t="s">
+      <c r="A80" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B80" s="4" t="s">
         <v>198</v>
       </c>
       <c r="C80" t="s">
@@ -3393,10 +3387,10 @@
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="B81" s="5" t="s">
+      <c r="A81" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B81" s="4" t="s">
         <v>199</v>
       </c>
       <c r="C81" t="s">
@@ -3407,10 +3401,10 @@
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="B82" s="5" t="s">
+      <c r="A82" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B82" s="4" t="s">
         <v>200</v>
       </c>
       <c r="C82" t="s">
@@ -3421,10 +3415,10 @@
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="B83" s="5" t="s">
+      <c r="A83" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B83" s="4" t="s">
         <v>201</v>
       </c>
       <c r="C83" t="s">
@@ -3435,10 +3429,10 @@
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="B84" s="5" t="s">
+      <c r="A84" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B84" s="4" t="s">
         <v>202</v>
       </c>
       <c r="C84" t="s">
@@ -3449,10 +3443,10 @@
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="B85" s="5" t="s">
+      <c r="A85" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B85" s="4" t="s">
         <v>203</v>
       </c>
       <c r="C85" t="s">
@@ -3463,10 +3457,10 @@
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="B86" s="5" t="s">
+      <c r="A86" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B86" s="4" t="s">
         <v>204</v>
       </c>
       <c r="C86" t="s">
@@ -3477,10 +3471,10 @@
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="B87" s="5" t="s">
+      <c r="A87" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B87" s="4" t="s">
         <v>205</v>
       </c>
       <c r="C87" t="s">
@@ -3491,10 +3485,10 @@
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="B88" s="5" t="s">
+      <c r="A88" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B88" s="4" t="s">
         <v>206</v>
       </c>
       <c r="C88" t="s">
@@ -3505,10 +3499,10 @@
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="B89" s="5" t="s">
+      <c r="A89" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B89" s="4" t="s">
         <v>207</v>
       </c>
       <c r="C89" t="s">
@@ -3519,10 +3513,10 @@
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="B90" s="5" t="s">
+      <c r="A90" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B90" s="4" t="s">
         <v>208</v>
       </c>
       <c r="C90" t="s">
@@ -3533,10 +3527,10 @@
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="B91" s="5" t="s">
+      <c r="A91" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B91" s="4" t="s">
         <v>209</v>
       </c>
       <c r="C91" t="s">
@@ -3547,10 +3541,10 @@
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="B92" s="5" t="s">
+      <c r="A92" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B92" s="4" t="s">
         <v>210</v>
       </c>
       <c r="C92" t="s">
@@ -3561,10 +3555,10 @@
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="B93" s="5" t="s">
+      <c r="A93" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B93" s="4" t="s">
         <v>211</v>
       </c>
       <c r="C93" t="s">
@@ -3575,10 +3569,10 @@
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="B94" s="5" t="s">
+      <c r="A94" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B94" s="4" t="s">
         <v>212</v>
       </c>
       <c r="C94" t="s">
@@ -3589,10 +3583,10 @@
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="B95" s="5" t="s">
+      <c r="A95" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B95" s="4" t="s">
         <v>213</v>
       </c>
       <c r="C95" t="s">
@@ -3603,10 +3597,10 @@
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="B96" s="5" t="s">
+      <c r="A96" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B96" s="4" t="s">
         <v>214</v>
       </c>
       <c r="C96" t="s">
@@ -3617,10 +3611,10 @@
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="B97" s="5" t="s">
+      <c r="A97" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B97" s="4" t="s">
         <v>215</v>
       </c>
       <c r="C97" t="s">
@@ -3631,10 +3625,10 @@
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="B98" s="5" t="s">
+      <c r="A98" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B98" s="4" t="s">
         <v>216</v>
       </c>
       <c r="C98" t="s">
@@ -3645,10 +3639,10 @@
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="B99" s="5" t="s">
+      <c r="A99" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B99" s="4" t="s">
         <v>217</v>
       </c>
       <c r="C99" t="s">
@@ -3659,10 +3653,10 @@
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="B100" s="5" t="s">
+      <c r="A100" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B100" s="4" t="s">
         <v>218</v>
       </c>
       <c r="C100" t="s">
@@ -3673,10 +3667,10 @@
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="B101" s="5" t="s">
+      <c r="A101" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B101" s="4" t="s">
         <v>219</v>
       </c>
       <c r="C101" t="s">
@@ -3687,10 +3681,10 @@
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="B102" s="5" t="s">
+      <c r="A102" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B102" s="4" t="s">
         <v>220</v>
       </c>
       <c r="C102" t="s">
@@ -3701,10 +3695,10 @@
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="B103" s="5" t="s">
+      <c r="A103" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B103" s="4" t="s">
         <v>221</v>
       </c>
       <c r="C103" t="s">
@@ -3715,10 +3709,10 @@
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="B104" s="5" t="s">
+      <c r="A104" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B104" s="4" t="s">
         <v>222</v>
       </c>
       <c r="C104" t="s">
@@ -3729,10 +3723,10 @@
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="B105" s="5" t="s">
+      <c r="A105" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B105" s="4" t="s">
         <v>223</v>
       </c>
       <c r="C105" t="s">
@@ -3743,10 +3737,10 @@
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="B106" s="5" t="s">
+      <c r="A106" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B106" s="4" t="s">
         <v>224</v>
       </c>
       <c r="C106" t="s">
@@ -3757,10 +3751,10 @@
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="B107" s="5" t="s">
+      <c r="A107" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B107" s="4" t="s">
         <v>225</v>
       </c>
       <c r="C107" t="s">
@@ -3771,10 +3765,10 @@
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="B108" s="5" t="s">
+      <c r="A108" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B108" s="4" t="s">
         <v>226</v>
       </c>
       <c r="C108" t="s">
@@ -3785,10 +3779,10 @@
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="B109" s="5" t="s">
+      <c r="A109" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B109" s="4" t="s">
         <v>227</v>
       </c>
       <c r="C109" t="s">
@@ -3799,11 +3793,11 @@
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="B110" s="5" t="s">
-        <v>296</v>
+      <c r="A110" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>293</v>
       </c>
       <c r="C110" t="s">
         <v>228</v>
@@ -3813,10 +3807,10 @@
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="B111" s="5" t="s">
+      <c r="A111" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B111" s="4" t="s">
         <v>229</v>
       </c>
       <c r="C111" t="s">
@@ -3827,10 +3821,10 @@
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="B112" s="5" t="s">
+      <c r="A112" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B112" s="4" t="s">
         <v>230</v>
       </c>
       <c r="C112" t="s">
@@ -3841,10 +3835,10 @@
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="B113" s="5" t="s">
+      <c r="A113" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B113" s="4" t="s">
         <v>231</v>
       </c>
       <c r="C113" t="s">
@@ -3855,10 +3849,10 @@
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="B114" s="5" t="s">
+      <c r="A114" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B114" s="4" t="s">
         <v>232</v>
       </c>
       <c r="C114" t="s">
@@ -3869,10 +3863,10 @@
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A115" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="B115" s="5" t="s">
+      <c r="A115" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B115" s="4" t="s">
         <v>233</v>
       </c>
       <c r="C115" t="s">
@@ -3883,10 +3877,10 @@
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="B116" s="5" t="s">
+      <c r="A116" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B116" s="4" t="s">
         <v>234</v>
       </c>
       <c r="C116" t="s">
@@ -3897,10 +3891,10 @@
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A117" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="B117" s="5" t="s">
+      <c r="A117" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B117" s="4" t="s">
         <v>235</v>
       </c>
       <c r="C117" t="s">
@@ -3911,10 +3905,10 @@
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="B118" s="5" t="s">
+      <c r="A118" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B118" s="4" t="s">
         <v>236</v>
       </c>
       <c r="C118" t="s">
@@ -3925,10 +3919,10 @@
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="B119" s="5" t="s">
+      <c r="A119" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B119" s="4" t="s">
         <v>237</v>
       </c>
       <c r="C119" t="s">
@@ -3939,10 +3933,10 @@
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A120" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="B120" s="5" t="s">
+      <c r="A120" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B120" s="4" t="s">
         <v>238</v>
       </c>
       <c r="C120" t="s">
@@ -3953,10 +3947,10 @@
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A121" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="B121" s="5" t="s">
+      <c r="A121" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B121" s="4" t="s">
         <v>239</v>
       </c>
       <c r="C121" t="s">
@@ -3967,10 +3961,10 @@
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A122" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="B122" s="5" t="s">
+      <c r="A122" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B122" s="4" t="s">
         <v>240</v>
       </c>
       <c r="C122" t="s">
@@ -3981,10 +3975,10 @@
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A123" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="B123" s="5" t="s">
+      <c r="A123" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B123" s="4" t="s">
         <v>241</v>
       </c>
       <c r="C123" t="s">
@@ -3995,10 +3989,10 @@
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A124" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="B124" s="5" t="s">
+      <c r="A124" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B124" s="4" t="s">
         <v>242</v>
       </c>
       <c r="C124" t="s">
@@ -4009,10 +4003,10 @@
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A125" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="B125" s="5" t="s">
+      <c r="A125" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B125" s="4" t="s">
         <v>243</v>
       </c>
       <c r="C125" t="s">
@@ -4023,10 +4017,10 @@
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A126" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="B126" s="5" t="s">
+      <c r="A126" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B126" s="4" t="s">
         <v>244</v>
       </c>
       <c r="C126" t="s">
@@ -4037,10 +4031,10 @@
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A127" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="B127" s="5" t="s">
+      <c r="A127" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B127" s="4" t="s">
         <v>245</v>
       </c>
       <c r="C127" t="s">
@@ -4051,10 +4045,10 @@
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A128" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="B128" s="5" t="s">
+      <c r="A128" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B128" s="4" t="s">
         <v>246</v>
       </c>
       <c r="C128" t="s">
@@ -4065,10 +4059,10 @@
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A129" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="B129" s="5" t="s">
+      <c r="A129" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B129" s="4" t="s">
         <v>247</v>
       </c>
       <c r="C129" t="s">
@@ -4079,10 +4073,10 @@
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A130" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="B130" s="5" t="s">
+      <c r="A130" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B130" s="4" t="s">
         <v>248</v>
       </c>
       <c r="C130" t="s">
@@ -4093,10 +4087,10 @@
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A131" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="B131" s="5" t="s">
+      <c r="A131" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B131" s="4" t="s">
         <v>249</v>
       </c>
       <c r="C131" t="s">
@@ -4107,10 +4101,10 @@
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A132" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="B132" s="5" t="s">
+      <c r="A132" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B132" s="4" t="s">
         <v>250</v>
       </c>
       <c r="C132" t="s">
@@ -4121,10 +4115,10 @@
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A133" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="B133" s="5" t="s">
+      <c r="A133" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B133" s="4" t="s">
         <v>251</v>
       </c>
       <c r="C133" t="s">
@@ -4135,10 +4129,10 @@
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A134" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="B134" s="5" t="s">
+      <c r="A134" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B134" s="4" t="s">
         <v>252</v>
       </c>
       <c r="C134" t="s">
@@ -4149,10 +4143,10 @@
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A135" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="B135" s="5" t="s">
+      <c r="A135" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B135" s="4" t="s">
         <v>253</v>
       </c>
       <c r="C135" t="s">
@@ -4163,10 +4157,10 @@
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A136" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="B136" s="5" t="s">
+      <c r="A136" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B136" s="4" t="s">
         <v>254</v>
       </c>
       <c r="C136" t="s">
@@ -4177,10 +4171,10 @@
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A137" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="B137" s="5" t="s">
+      <c r="A137" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B137" s="4" t="s">
         <v>255</v>
       </c>
       <c r="C137" t="s">
@@ -4191,10 +4185,10 @@
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A138" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="B138" s="5" t="s">
+      <c r="A138" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B138" s="4" t="s">
         <v>256</v>
       </c>
       <c r="C138" t="s">
@@ -4205,10 +4199,10 @@
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A139" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="B139" s="5" t="s">
+      <c r="A139" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B139" s="4" t="s">
         <v>257</v>
       </c>
       <c r="C139" t="s">
@@ -4219,10 +4213,10 @@
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A140" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="B140" s="5" t="s">
+      <c r="A140" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B140" s="4" t="s">
         <v>258</v>
       </c>
       <c r="C140" t="s">
@@ -4233,10 +4227,10 @@
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A141" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="B141" s="5" t="s">
+      <c r="A141" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B141" s="4" t="s">
         <v>259</v>
       </c>
       <c r="C141" t="s">
@@ -4247,10 +4241,10 @@
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A142" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="B142" s="5" t="s">
+      <c r="A142" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B142" s="4" t="s">
         <v>260</v>
       </c>
       <c r="C142" t="s">
@@ -4261,10 +4255,10 @@
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A143" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="B143" s="5" t="s">
+      <c r="A143" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B143" s="4" t="s">
         <v>261</v>
       </c>
       <c r="C143" t="s">
@@ -4275,10 +4269,10 @@
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A144" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="B144" s="5" t="s">
+      <c r="A144" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B144" s="4" t="s">
         <v>262</v>
       </c>
       <c r="C144" t="s">
@@ -4289,10 +4283,10 @@
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A145" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="B145" s="5" t="s">
+      <c r="A145" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B145" s="4" t="s">
         <v>263</v>
       </c>
       <c r="C145" t="s">
@@ -4303,10 +4297,10 @@
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A146" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="B146" s="5" t="s">
+      <c r="A146" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B146" s="4" t="s">
         <v>264</v>
       </c>
       <c r="C146" t="s">
@@ -4317,10 +4311,10 @@
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A147" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="B147" s="5" t="s">
+      <c r="A147" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B147" s="4" t="s">
         <v>265</v>
       </c>
       <c r="C147" t="s">
@@ -4331,10 +4325,10 @@
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A148" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="B148" s="5" t="s">
+      <c r="A148" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B148" s="4" t="s">
         <v>266</v>
       </c>
       <c r="C148" t="s">
@@ -4345,10 +4339,10 @@
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A149" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="B149" s="5" t="s">
+      <c r="A149" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B149" s="4" t="s">
         <v>267</v>
       </c>
       <c r="C149" t="s">
@@ -4359,10 +4353,10 @@
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A150" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="B150" s="5" t="s">
+      <c r="A150" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B150" s="4" t="s">
         <v>268</v>
       </c>
       <c r="C150" t="s">
@@ -4373,10 +4367,10 @@
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A151" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="B151" s="5" t="s">
+      <c r="A151" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B151" s="4" t="s">
         <v>269</v>
       </c>
       <c r="C151" t="s">
@@ -4387,10 +4381,10 @@
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A152" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="B152" s="5" t="s">
+      <c r="A152" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B152" s="4" t="s">
         <v>270</v>
       </c>
       <c r="C152" t="s">
@@ -4401,10 +4395,10 @@
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A153" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="B153" s="5" t="s">
+      <c r="A153" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B153" s="4" t="s">
         <v>271</v>
       </c>
       <c r="C153" t="s">
@@ -4415,10 +4409,10 @@
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A154" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="B154" s="5" t="s">
+      <c r="A154" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B154" s="4" t="s">
         <v>272</v>
       </c>
       <c r="C154" t="s">
@@ -4429,10 +4423,10 @@
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A155" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="B155" s="5" t="s">
+      <c r="A155" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B155" s="4" t="s">
         <v>273</v>
       </c>
       <c r="C155" t="s">
@@ -4443,10 +4437,10 @@
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A156" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="B156" s="5" t="s">
+      <c r="A156" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B156" s="4" t="s">
         <v>274</v>
       </c>
       <c r="C156" t="s">
@@ -4457,10 +4451,10 @@
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A157" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="B157" s="5" t="s">
+      <c r="A157" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B157" s="4" t="s">
         <v>275</v>
       </c>
       <c r="C157" t="s">
@@ -4471,10 +4465,10 @@
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A158" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="B158" s="5" t="s">
+      <c r="A158" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B158" s="4" t="s">
         <v>276</v>
       </c>
       <c r="C158" t="s">
@@ -4485,10 +4479,10 @@
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A159" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="B159" s="5" t="s">
+      <c r="A159" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B159" s="4" t="s">
         <v>277</v>
       </c>
       <c r="C159" t="s">
@@ -4499,10 +4493,10 @@
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A160" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="B160" s="5" t="s">
+      <c r="A160" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B160" s="4" t="s">
         <v>278</v>
       </c>
       <c r="C160" t="s">
@@ -4513,10 +4507,10 @@
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A161" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="B161" s="5" t="s">
+      <c r="A161" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B161" s="4" t="s">
         <v>279</v>
       </c>
       <c r="C161" t="s">
@@ -4527,10 +4521,10 @@
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A162" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="B162" s="5" t="s">
+      <c r="A162" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B162" s="4" t="s">
         <v>280</v>
       </c>
       <c r="C162" t="s">
@@ -4541,10 +4535,10 @@
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A163" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="B163" s="5" t="s">
+      <c r="A163" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B163" s="4" t="s">
         <v>281</v>
       </c>
       <c r="C163" t="s">
@@ -4555,10 +4549,10 @@
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A164" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="B164" s="5" t="s">
+      <c r="A164" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B164" s="4" t="s">
         <v>282</v>
       </c>
       <c r="C164" t="s">
@@ -4569,10 +4563,10 @@
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A165" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="B165" s="5" t="s">
+      <c r="A165" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B165" s="4" t="s">
         <v>283</v>
       </c>
       <c r="C165" t="s">
@@ -4583,16 +4577,16 @@
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A166" s="36"/>
+      <c r="A166" s="34"/>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A167" s="36" t="s">
-        <v>284</v>
-      </c>
-      <c r="B167" s="5">
+      <c r="A167" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="B167" s="4">
         <v>101</v>
       </c>
-      <c r="C167" s="5">
+      <c r="C167" s="4">
         <v>101</v>
       </c>
       <c r="F167" t="s">
@@ -4600,13 +4594,13 @@
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A168" s="36" t="s">
-        <v>284</v>
-      </c>
-      <c r="B168" s="5">
+      <c r="A168" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="B168" s="4">
         <v>102</v>
       </c>
-      <c r="C168" s="5">
+      <c r="C168" s="4">
         <v>102</v>
       </c>
       <c r="F168" t="s">
@@ -4614,13 +4608,13 @@
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A169" s="36" t="s">
-        <v>284</v>
-      </c>
-      <c r="B169" s="5">
+      <c r="A169" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="B169" s="4">
         <v>103</v>
       </c>
-      <c r="C169" s="5">
+      <c r="C169" s="4">
         <v>103</v>
       </c>
       <c r="F169" t="s">
@@ -4628,13 +4622,13 @@
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A170" s="36" t="s">
-        <v>284</v>
-      </c>
-      <c r="B170" s="5">
+      <c r="A170" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="B170" s="4">
         <v>104</v>
       </c>
-      <c r="C170" s="5">
+      <c r="C170" s="4">
         <v>104</v>
       </c>
       <c r="F170" t="s">
@@ -4642,13 +4636,13 @@
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A171" s="36" t="s">
-        <v>284</v>
-      </c>
-      <c r="B171" s="5">
+      <c r="A171" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="B171" s="4">
         <v>105</v>
       </c>
-      <c r="C171" s="5">
+      <c r="C171" s="4">
         <v>105</v>
       </c>
       <c r="F171" t="s">
@@ -4656,13 +4650,13 @@
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A172" s="36" t="s">
-        <v>284</v>
-      </c>
-      <c r="B172" s="5">
+      <c r="A172" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="B172" s="4">
         <v>106</v>
       </c>
-      <c r="C172" s="5">
+      <c r="C172" s="4">
         <v>106</v>
       </c>
       <c r="F172" t="s">
@@ -4670,13 +4664,13 @@
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A173" s="36" t="s">
-        <v>284</v>
-      </c>
-      <c r="B173" s="5">
+      <c r="A173" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="B173" s="4">
         <v>107</v>
       </c>
-      <c r="C173" s="5">
+      <c r="C173" s="4">
         <v>107</v>
       </c>
       <c r="F173" t="s">
@@ -4684,13 +4678,13 @@
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A174" s="36" t="s">
-        <v>284</v>
-      </c>
-      <c r="B174" s="5">
+      <c r="A174" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="B174" s="4">
         <v>108</v>
       </c>
-      <c r="C174" s="5">
+      <c r="C174" s="4">
         <v>108</v>
       </c>
       <c r="F174" t="s">
@@ -4698,13 +4692,13 @@
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A175" s="36" t="s">
-        <v>284</v>
-      </c>
-      <c r="B175" s="5">
+      <c r="A175" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="B175" s="4">
         <v>109</v>
       </c>
-      <c r="C175" s="5">
+      <c r="C175" s="4">
         <v>109</v>
       </c>
       <c r="F175" t="s">
@@ -4712,13 +4706,13 @@
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A176" s="36" t="s">
-        <v>284</v>
-      </c>
-      <c r="B176" s="5">
+      <c r="A176" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="B176" s="4">
         <v>110</v>
       </c>
-      <c r="C176" s="5">
+      <c r="C176" s="4">
         <v>110</v>
       </c>
       <c r="F176" t="s">
@@ -4726,13 +4720,13 @@
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A177" s="36" t="s">
-        <v>284</v>
-      </c>
-      <c r="B177" s="5">
+      <c r="A177" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="B177" s="4">
         <v>111</v>
       </c>
-      <c r="C177" s="5">
+      <c r="C177" s="4">
         <v>111</v>
       </c>
       <c r="F177" t="s">
@@ -4740,13 +4734,13 @@
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A178" s="36" t="s">
-        <v>284</v>
-      </c>
-      <c r="B178" s="5">
+      <c r="A178" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="B178" s="4">
         <v>112</v>
       </c>
-      <c r="C178" s="5">
+      <c r="C178" s="4">
         <v>112</v>
       </c>
       <c r="F178" t="s">
@@ -4754,13 +4748,13 @@
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A179" s="36" t="s">
-        <v>284</v>
-      </c>
-      <c r="B179" s="5">
+      <c r="A179" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="B179" s="4">
         <v>113</v>
       </c>
-      <c r="C179" s="5">
+      <c r="C179" s="4">
         <v>113</v>
       </c>
       <c r="F179" t="s">
@@ -4768,13 +4762,13 @@
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A180" s="36" t="s">
-        <v>284</v>
-      </c>
-      <c r="B180" s="5">
+      <c r="A180" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="B180" s="4">
         <v>114</v>
       </c>
-      <c r="C180" s="5">
+      <c r="C180" s="4">
         <v>114</v>
       </c>
       <c r="F180" t="s">
@@ -4782,13 +4776,13 @@
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A181" s="36" t="s">
-        <v>284</v>
-      </c>
-      <c r="B181" s="5">
+      <c r="A181" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="B181" s="4">
         <v>115</v>
       </c>
-      <c r="C181" s="5">
+      <c r="C181" s="4">
         <v>115</v>
       </c>
       <c r="F181" t="s">
@@ -4796,13 +4790,13 @@
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A182" s="36" t="s">
-        <v>284</v>
-      </c>
-      <c r="B182" s="5">
+      <c r="A182" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="B182" s="4">
         <v>116</v>
       </c>
-      <c r="C182" s="5">
+      <c r="C182" s="4">
         <v>116</v>
       </c>
       <c r="F182" t="s">
@@ -4810,13 +4804,13 @@
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A183" s="36" t="s">
-        <v>284</v>
-      </c>
-      <c r="B183" s="5">
+      <c r="A183" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="B183" s="4">
         <v>117</v>
       </c>
-      <c r="C183" s="5">
+      <c r="C183" s="4">
         <v>117</v>
       </c>
       <c r="F183" t="s">
@@ -4824,13 +4818,13 @@
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A184" s="36" t="s">
-        <v>284</v>
-      </c>
-      <c r="B184" s="5">
+      <c r="A184" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="B184" s="4">
         <v>118</v>
       </c>
-      <c r="C184" s="5">
+      <c r="C184" s="4">
         <v>118</v>
       </c>
       <c r="F184" t="s">
@@ -4838,13 +4832,13 @@
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A185" s="36" t="s">
-        <v>284</v>
-      </c>
-      <c r="B185" s="5">
+      <c r="A185" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="B185" s="4">
         <v>119</v>
       </c>
-      <c r="C185" s="5">
+      <c r="C185" s="4">
         <v>119</v>
       </c>
       <c r="F185" t="s">
@@ -4852,13 +4846,13 @@
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A186" s="36" t="s">
-        <v>284</v>
-      </c>
-      <c r="B186" s="5">
+      <c r="A186" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="B186" s="4">
         <v>120</v>
       </c>
-      <c r="C186" s="5">
+      <c r="C186" s="4">
         <v>120</v>
       </c>
       <c r="F186" t="s">
@@ -4866,13 +4860,13 @@
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A187" s="36" t="s">
-        <v>284</v>
-      </c>
-      <c r="B187" s="5">
+      <c r="A187" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="B187" s="4">
         <v>121</v>
       </c>
-      <c r="C187" s="5">
+      <c r="C187" s="4">
         <v>121</v>
       </c>
       <c r="F187" t="s">
@@ -4880,13 +4874,13 @@
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A188" s="36" t="s">
-        <v>284</v>
-      </c>
-      <c r="B188" s="5">
+      <c r="A188" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="B188" s="4">
         <v>122</v>
       </c>
-      <c r="C188" s="5">
+      <c r="C188" s="4">
         <v>122</v>
       </c>
       <c r="F188" t="s">
@@ -4894,13 +4888,13 @@
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A189" s="36" t="s">
-        <v>284</v>
-      </c>
-      <c r="B189" s="5">
+      <c r="A189" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="B189" s="4">
         <v>123</v>
       </c>
-      <c r="C189" s="5">
+      <c r="C189" s="4">
         <v>123</v>
       </c>
       <c r="F189" t="s">
@@ -4908,13 +4902,13 @@
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A190" s="36" t="s">
-        <v>284</v>
-      </c>
-      <c r="B190" s="5">
+      <c r="A190" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="B190" s="4">
         <v>124</v>
       </c>
-      <c r="C190" s="5">
+      <c r="C190" s="4">
         <v>124</v>
       </c>
       <c r="F190" t="s">
@@ -4922,13 +4916,13 @@
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A191" s="36" t="s">
-        <v>284</v>
-      </c>
-      <c r="B191" s="5">
+      <c r="A191" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="B191" s="4">
         <v>125</v>
       </c>
-      <c r="C191" s="5">
+      <c r="C191" s="4">
         <v>125</v>
       </c>
       <c r="F191" t="s">
@@ -4936,13 +4930,13 @@
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A192" s="36" t="s">
-        <v>284</v>
-      </c>
-      <c r="B192" s="5">
+      <c r="A192" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="B192" s="4">
         <v>126</v>
       </c>
-      <c r="C192" s="5">
+      <c r="C192" s="4">
         <v>126</v>
       </c>
       <c r="F192" t="s">
@@ -4950,13 +4944,13 @@
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A193" s="36" t="s">
-        <v>284</v>
-      </c>
-      <c r="B193" s="5">
+      <c r="A193" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="B193" s="4">
         <v>127</v>
       </c>
-      <c r="C193" s="5">
+      <c r="C193" s="4">
         <v>127</v>
       </c>
       <c r="F193" t="s">
@@ -4964,13 +4958,13 @@
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A194" s="36" t="s">
-        <v>284</v>
-      </c>
-      <c r="B194" s="5">
+      <c r="A194" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="B194" s="4">
         <v>128</v>
       </c>
-      <c r="C194" s="5">
+      <c r="C194" s="4">
         <v>128</v>
       </c>
       <c r="F194" t="s">
@@ -4978,13 +4972,13 @@
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A195" s="36" t="s">
-        <v>284</v>
-      </c>
-      <c r="B195" s="5">
+      <c r="A195" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="B195" s="4">
         <v>129</v>
       </c>
-      <c r="C195" s="5">
+      <c r="C195" s="4">
         <v>129</v>
       </c>
       <c r="F195" t="s">
@@ -4992,13 +4986,13 @@
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A196" s="36" t="s">
-        <v>284</v>
-      </c>
-      <c r="B196" s="5">
+      <c r="A196" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="B196" s="4">
         <v>130</v>
       </c>
-      <c r="C196" s="5">
+      <c r="C196" s="4">
         <v>130</v>
       </c>
       <c r="F196" t="s">
@@ -5006,13 +5000,13 @@
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A197" s="36" t="s">
-        <v>284</v>
-      </c>
-      <c r="B197" s="5">
+      <c r="A197" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="B197" s="4">
         <v>131</v>
       </c>
-      <c r="C197" s="5">
+      <c r="C197" s="4">
         <v>131</v>
       </c>
       <c r="F197" t="s">
@@ -5020,13 +5014,13 @@
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A198" s="36" t="s">
-        <v>284</v>
-      </c>
-      <c r="B198" s="5">
-        <v>132</v>
-      </c>
-      <c r="C198" s="5">
+      <c r="A198" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="B198" s="4">
+        <v>132</v>
+      </c>
+      <c r="C198" s="4">
         <v>132</v>
       </c>
       <c r="F198" t="s">
@@ -5034,13 +5028,13 @@
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A199" s="36" t="s">
-        <v>284</v>
-      </c>
-      <c r="B199" s="5">
+      <c r="A199" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="B199" s="4">
         <v>133</v>
       </c>
-      <c r="C199" s="5">
+      <c r="C199" s="4">
         <v>133</v>
       </c>
       <c r="F199" t="s">
@@ -5048,13 +5042,13 @@
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A200" s="36" t="s">
-        <v>284</v>
-      </c>
-      <c r="B200" s="5">
+      <c r="A200" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="B200" s="4">
         <v>134</v>
       </c>
-      <c r="C200" s="5">
+      <c r="C200" s="4">
         <v>134</v>
       </c>
       <c r="F200" t="s">
@@ -5062,13 +5056,13 @@
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A201" s="36" t="s">
-        <v>284</v>
-      </c>
-      <c r="B201" s="5">
+      <c r="A201" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="B201" s="4">
         <v>135</v>
       </c>
-      <c r="C201" s="5">
+      <c r="C201" s="4">
         <v>135</v>
       </c>
       <c r="F201" t="s">
@@ -5076,13 +5070,13 @@
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A202" s="36" t="s">
-        <v>284</v>
-      </c>
-      <c r="B202" s="5">
+      <c r="A202" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="B202" s="4">
         <v>136</v>
       </c>
-      <c r="C202" s="5">
+      <c r="C202" s="4">
         <v>136</v>
       </c>
       <c r="F202" t="s">
@@ -5090,13 +5084,13 @@
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A203" s="36" t="s">
-        <v>284</v>
-      </c>
-      <c r="B203" s="5">
+      <c r="A203" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="B203" s="4">
         <v>137</v>
       </c>
-      <c r="C203" s="5">
+      <c r="C203" s="4">
         <v>137</v>
       </c>
       <c r="F203" t="s">
@@ -5104,13 +5098,13 @@
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A204" s="36" t="s">
-        <v>284</v>
-      </c>
-      <c r="B204" s="5">
+      <c r="A204" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="B204" s="4">
         <v>138</v>
       </c>
-      <c r="C204" s="5">
+      <c r="C204" s="4">
         <v>138</v>
       </c>
       <c r="F204" t="s">
@@ -5118,13 +5112,13 @@
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A205" s="36" t="s">
-        <v>284</v>
-      </c>
-      <c r="B205" s="5">
+      <c r="A205" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="B205" s="4">
         <v>139</v>
       </c>
-      <c r="C205" s="5">
+      <c r="C205" s="4">
         <v>139</v>
       </c>
       <c r="F205" t="s">
@@ -5132,13 +5126,13 @@
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A206" s="36" t="s">
-        <v>284</v>
-      </c>
-      <c r="B206" s="5">
+      <c r="A206" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="B206" s="4">
         <v>140</v>
       </c>
-      <c r="C206" s="5">
+      <c r="C206" s="4">
         <v>140</v>
       </c>
       <c r="F206" t="s">
@@ -5146,13 +5140,13 @@
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A207" s="36" t="s">
-        <v>284</v>
-      </c>
-      <c r="B207" s="5">
+      <c r="A207" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="B207" s="4">
         <v>141</v>
       </c>
-      <c r="C207" s="5">
+      <c r="C207" s="4">
         <v>141</v>
       </c>
       <c r="F207" t="s">
@@ -5160,13 +5154,13 @@
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A208" s="36" t="s">
-        <v>284</v>
-      </c>
-      <c r="B208" s="5">
+      <c r="A208" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="B208" s="4">
         <v>142</v>
       </c>
-      <c r="C208" s="5">
+      <c r="C208" s="4">
         <v>142</v>
       </c>
       <c r="F208" t="s">
@@ -5174,13 +5168,13 @@
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A209" s="36" t="s">
-        <v>284</v>
-      </c>
-      <c r="B209" s="5">
+      <c r="A209" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="B209" s="4">
         <v>143</v>
       </c>
-      <c r="C209" s="5">
+      <c r="C209" s="4">
         <v>143</v>
       </c>
       <c r="F209" t="s">
@@ -5188,13 +5182,13 @@
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A210" s="36" t="s">
-        <v>284</v>
-      </c>
-      <c r="B210" s="5">
+      <c r="A210" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="B210" s="4">
         <v>144</v>
       </c>
-      <c r="C210" s="5">
+      <c r="C210" s="4">
         <v>144</v>
       </c>
       <c r="F210" t="s">
@@ -5202,13 +5196,13 @@
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A211" s="36" t="s">
-        <v>284</v>
-      </c>
-      <c r="B211" s="5">
+      <c r="A211" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="B211" s="4">
         <v>145</v>
       </c>
-      <c r="C211" s="5">
+      <c r="C211" s="4">
         <v>145</v>
       </c>
       <c r="F211" t="s">
@@ -5216,13 +5210,13 @@
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A212" s="36" t="s">
-        <v>284</v>
-      </c>
-      <c r="B212" s="5">
-        <v>146</v>
-      </c>
-      <c r="C212" s="5">
+      <c r="A212" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="B212" s="4">
+        <v>146</v>
+      </c>
+      <c r="C212" s="4">
         <v>146</v>
       </c>
       <c r="F212" t="s">
@@ -5230,13 +5224,13 @@
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A213" s="36" t="s">
-        <v>284</v>
-      </c>
-      <c r="B213" s="5">
+      <c r="A213" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="B213" s="4">
         <v>147</v>
       </c>
-      <c r="C213" s="5">
+      <c r="C213" s="4">
         <v>147</v>
       </c>
       <c r="F213" t="s">
@@ -5244,13 +5238,13 @@
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A214" s="36" t="s">
-        <v>284</v>
-      </c>
-      <c r="B214" s="5">
+      <c r="A214" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="B214" s="4">
         <v>148</v>
       </c>
-      <c r="C214" s="5">
+      <c r="C214" s="4">
         <v>148</v>
       </c>
       <c r="F214" t="s">
@@ -5258,13 +5252,13 @@
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A215" s="36" t="s">
-        <v>284</v>
-      </c>
-      <c r="B215" s="5">
+      <c r="A215" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="B215" s="4">
         <v>149</v>
       </c>
-      <c r="C215" s="5">
+      <c r="C215" s="4">
         <v>149</v>
       </c>
       <c r="F215" t="s">
@@ -5272,13 +5266,13 @@
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A216" s="36" t="s">
-        <v>284</v>
-      </c>
-      <c r="B216" s="5">
+      <c r="A216" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="B216" s="4">
         <v>150</v>
       </c>
-      <c r="C216" s="5">
+      <c r="C216" s="4">
         <v>150</v>
       </c>
       <c r="F216" t="s">
@@ -5286,13 +5280,13 @@
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A217" s="36" t="s">
-        <v>284</v>
-      </c>
-      <c r="B217" s="5">
+      <c r="A217" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="B217" s="4">
         <v>151</v>
       </c>
-      <c r="C217" s="5">
+      <c r="C217" s="4">
         <v>151</v>
       </c>
       <c r="F217" t="s">
@@ -5300,13 +5294,13 @@
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A218" s="36" t="s">
-        <v>284</v>
-      </c>
-      <c r="B218" s="5">
+      <c r="A218" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="B218" s="4">
         <v>152</v>
       </c>
-      <c r="C218" s="5">
+      <c r="C218" s="4">
         <v>152</v>
       </c>
       <c r="F218" t="s">
@@ -5314,13 +5308,13 @@
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A219" s="36" t="s">
-        <v>284</v>
-      </c>
-      <c r="B219" s="5">
+      <c r="A219" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="B219" s="4">
         <v>153</v>
       </c>
-      <c r="C219" s="5">
+      <c r="C219" s="4">
         <v>153</v>
       </c>
       <c r="F219" t="s">
@@ -5328,13 +5322,13 @@
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A220" s="36" t="s">
-        <v>284</v>
-      </c>
-      <c r="B220" s="5">
+      <c r="A220" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="B220" s="4">
         <v>154</v>
       </c>
-      <c r="C220" s="5">
+      <c r="C220" s="4">
         <v>154</v>
       </c>
       <c r="F220" t="s">
@@ -5342,13 +5336,13 @@
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A221" s="36" t="s">
-        <v>284</v>
-      </c>
-      <c r="B221" s="5">
+      <c r="A221" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="B221" s="4">
         <v>155</v>
       </c>
-      <c r="C221" s="5">
+      <c r="C221" s="4">
         <v>155</v>
       </c>
       <c r="F221" t="s">
@@ -5356,13 +5350,13 @@
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A222" s="36" t="s">
-        <v>284</v>
-      </c>
-      <c r="B222" s="5">
+      <c r="A222" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="B222" s="4">
         <v>156</v>
       </c>
-      <c r="C222" s="5">
+      <c r="C222" s="4">
         <v>156</v>
       </c>
       <c r="F222" t="s">
@@ -5370,13 +5364,13 @@
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A223" s="36" t="s">
-        <v>284</v>
-      </c>
-      <c r="B223" s="5">
+      <c r="A223" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="B223" s="4">
         <v>157</v>
       </c>
-      <c r="C223" s="5">
+      <c r="C223" s="4">
         <v>157</v>
       </c>
       <c r="F223" t="s">
@@ -5384,13 +5378,13 @@
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A224" s="36" t="s">
-        <v>284</v>
-      </c>
-      <c r="B224" s="5">
+      <c r="A224" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="B224" s="4">
         <v>158</v>
       </c>
-      <c r="C224" s="5">
+      <c r="C224" s="4">
         <v>158</v>
       </c>
       <c r="F224" t="s">
@@ -5398,13 +5392,13 @@
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A225" s="36" t="s">
-        <v>284</v>
-      </c>
-      <c r="B225" s="5">
+      <c r="A225" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="B225" s="4">
         <v>159</v>
       </c>
-      <c r="C225" s="5">
+      <c r="C225" s="4">
         <v>159</v>
       </c>
       <c r="F225" t="s">
@@ -5412,13 +5406,13 @@
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A226" s="36" t="s">
-        <v>284</v>
-      </c>
-      <c r="B226" s="5">
+      <c r="A226" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="B226" s="4">
         <v>160</v>
       </c>
-      <c r="C226" s="5">
+      <c r="C226" s="4">
         <v>160</v>
       </c>
       <c r="F226" t="s">
@@ -5426,13 +5420,13 @@
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A227" s="36" t="s">
-        <v>284</v>
-      </c>
-      <c r="B227" s="5">
+      <c r="A227" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="B227" s="4">
         <v>161</v>
       </c>
-      <c r="C227" s="5">
+      <c r="C227" s="4">
         <v>161</v>
       </c>
       <c r="F227" t="s">
@@ -5440,13 +5434,13 @@
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A228" s="36" t="s">
-        <v>284</v>
-      </c>
-      <c r="B228" s="5">
+      <c r="A228" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="B228" s="4">
         <v>162</v>
       </c>
-      <c r="C228" s="5">
+      <c r="C228" s="4">
         <v>162</v>
       </c>
       <c r="F228" t="s">
@@ -5454,13 +5448,13 @@
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A229" s="36" t="s">
-        <v>284</v>
-      </c>
-      <c r="B229" s="5">
+      <c r="A229" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="B229" s="4">
         <v>163</v>
       </c>
-      <c r="C229" s="5">
+      <c r="C229" s="4">
         <v>163</v>
       </c>
       <c r="F229" t="s">
@@ -5468,13 +5462,13 @@
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A230" s="36" t="s">
-        <v>284</v>
-      </c>
-      <c r="B230" s="5">
+      <c r="A230" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="B230" s="4">
         <v>164</v>
       </c>
-      <c r="C230" s="5">
+      <c r="C230" s="4">
         <v>164</v>
       </c>
       <c r="F230" t="s">
@@ -5482,13 +5476,13 @@
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A231" s="36" t="s">
-        <v>284</v>
-      </c>
-      <c r="B231" s="5">
+      <c r="A231" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="B231" s="4">
         <v>165</v>
       </c>
-      <c r="C231" s="5">
+      <c r="C231" s="4">
         <v>165</v>
       </c>
       <c r="F231" t="s">
@@ -5496,13 +5490,13 @@
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A232" s="36" t="s">
-        <v>284</v>
-      </c>
-      <c r="B232" s="5">
+      <c r="A232" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="B232" s="4">
         <v>166</v>
       </c>
-      <c r="C232" s="5">
+      <c r="C232" s="4">
         <v>166</v>
       </c>
       <c r="F232" t="s">
@@ -5510,13 +5504,13 @@
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A233" s="36" t="s">
-        <v>284</v>
-      </c>
-      <c r="B233" s="5">
+      <c r="A233" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="B233" s="4">
         <v>167</v>
       </c>
-      <c r="C233" s="5">
+      <c r="C233" s="4">
         <v>167</v>
       </c>
       <c r="F233" t="s">
@@ -5524,13 +5518,13 @@
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A234" s="36" t="s">
-        <v>284</v>
-      </c>
-      <c r="B234" s="5">
+      <c r="A234" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="B234" s="4">
         <v>168</v>
       </c>
-      <c r="C234" s="5">
+      <c r="C234" s="4">
         <v>168</v>
       </c>
       <c r="F234" t="s">
@@ -5538,13 +5532,13 @@
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A235" s="36" t="s">
-        <v>284</v>
-      </c>
-      <c r="B235" s="5">
+      <c r="A235" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="B235" s="4">
         <v>169</v>
       </c>
-      <c r="C235" s="5">
+      <c r="C235" s="4">
         <v>169</v>
       </c>
       <c r="F235" t="s">
@@ -5552,13 +5546,13 @@
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A236" s="36" t="s">
-        <v>284</v>
-      </c>
-      <c r="B236" s="5">
+      <c r="A236" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="B236" s="4">
         <v>170</v>
       </c>
-      <c r="C236" s="5">
+      <c r="C236" s="4">
         <v>170</v>
       </c>
       <c r="F236" t="s">
@@ -5566,13 +5560,13 @@
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A237" s="36" t="s">
-        <v>284</v>
-      </c>
-      <c r="B237" s="5">
+      <c r="A237" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="B237" s="4">
         <v>171</v>
       </c>
-      <c r="C237" s="5">
+      <c r="C237" s="4">
         <v>171</v>
       </c>
       <c r="F237" t="s">
@@ -5580,13 +5574,13 @@
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A238" s="36" t="s">
-        <v>284</v>
-      </c>
-      <c r="B238" s="5">
+      <c r="A238" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="B238" s="4">
         <v>172</v>
       </c>
-      <c r="C238" s="5">
+      <c r="C238" s="4">
         <v>172</v>
       </c>
       <c r="F238" t="s">
@@ -5594,13 +5588,13 @@
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A239" s="36" t="s">
-        <v>284</v>
-      </c>
-      <c r="B239" s="5">
+      <c r="A239" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="B239" s="4">
         <v>173</v>
       </c>
-      <c r="C239" s="5">
+      <c r="C239" s="4">
         <v>173</v>
       </c>
       <c r="F239" t="s">
@@ -5608,13 +5602,13 @@
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A240" s="36" t="s">
-        <v>284</v>
-      </c>
-      <c r="B240" s="5">
+      <c r="A240" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="B240" s="4">
         <v>174</v>
       </c>
-      <c r="C240" s="5">
+      <c r="C240" s="4">
         <v>174</v>
       </c>
       <c r="F240" t="s">
@@ -5622,13 +5616,13 @@
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A241" s="36" t="s">
-        <v>284</v>
-      </c>
-      <c r="B241" s="5">
+      <c r="A241" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="B241" s="4">
         <v>175</v>
       </c>
-      <c r="C241" s="5">
+      <c r="C241" s="4">
         <v>175</v>
       </c>
       <c r="F241" t="s">
@@ -5636,13 +5630,13 @@
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A242" s="36" t="s">
-        <v>284</v>
-      </c>
-      <c r="B242" s="5">
+      <c r="A242" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="B242" s="4">
         <v>176</v>
       </c>
-      <c r="C242" s="5">
+      <c r="C242" s="4">
         <v>176</v>
       </c>
       <c r="F242" t="s">
@@ -5650,13 +5644,13 @@
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A243" s="36" t="s">
-        <v>284</v>
-      </c>
-      <c r="B243" s="5">
+      <c r="A243" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="B243" s="4">
         <v>177</v>
       </c>
-      <c r="C243" s="5">
+      <c r="C243" s="4">
         <v>177</v>
       </c>
       <c r="F243" t="s">
@@ -5664,13 +5658,13 @@
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A244" s="36" t="s">
-        <v>284</v>
-      </c>
-      <c r="B244" s="5">
+      <c r="A244" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="B244" s="4">
         <v>178</v>
       </c>
-      <c r="C244" s="5">
+      <c r="C244" s="4">
         <v>178</v>
       </c>
       <c r="F244" t="s">
@@ -5678,13 +5672,13 @@
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A245" s="36" t="s">
-        <v>284</v>
-      </c>
-      <c r="B245" s="5">
+      <c r="A245" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="B245" s="4">
         <v>179</v>
       </c>
-      <c r="C245" s="5">
+      <c r="C245" s="4">
         <v>179</v>
       </c>
       <c r="F245" t="s">
@@ -5692,13 +5686,13 @@
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A246" s="36" t="s">
-        <v>284</v>
-      </c>
-      <c r="B246" s="5">
+      <c r="A246" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="B246" s="4">
         <v>180</v>
       </c>
-      <c r="C246" s="5">
+      <c r="C246" s="4">
         <v>180</v>
       </c>
       <c r="F246" t="s">
@@ -5706,13 +5700,13 @@
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A247" s="36" t="s">
-        <v>284</v>
-      </c>
-      <c r="B247" s="5">
+      <c r="A247" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="B247" s="4">
         <v>181</v>
       </c>
-      <c r="C247" s="5">
+      <c r="C247" s="4">
         <v>181</v>
       </c>
       <c r="F247" t="s">
@@ -5720,13 +5714,13 @@
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A248" s="36" t="s">
-        <v>284</v>
-      </c>
-      <c r="B248" s="5">
+      <c r="A248" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="B248" s="4">
         <v>182</v>
       </c>
-      <c r="C248" s="5">
+      <c r="C248" s="4">
         <v>182</v>
       </c>
       <c r="F248" t="s">
@@ -5734,13 +5728,13 @@
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A249" s="36" t="s">
-        <v>284</v>
-      </c>
-      <c r="B249" s="5">
+      <c r="A249" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="B249" s="4">
         <v>183</v>
       </c>
-      <c r="C249" s="5">
+      <c r="C249" s="4">
         <v>183</v>
       </c>
       <c r="F249" t="s">
@@ -5748,13 +5742,13 @@
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A250" s="36" t="s">
-        <v>284</v>
-      </c>
-      <c r="B250" s="5">
+      <c r="A250" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="B250" s="4">
         <v>184</v>
       </c>
-      <c r="C250" s="5">
+      <c r="C250" s="4">
         <v>184</v>
       </c>
       <c r="F250" t="s">
@@ -5762,13 +5756,13 @@
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A251" s="36" t="s">
-        <v>284</v>
-      </c>
-      <c r="B251" s="5">
+      <c r="A251" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="B251" s="4">
         <v>185</v>
       </c>
-      <c r="C251" s="5">
+      <c r="C251" s="4">
         <v>185</v>
       </c>
       <c r="F251" t="s">
@@ -5776,13 +5770,13 @@
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A252" s="36" t="s">
-        <v>284</v>
-      </c>
-      <c r="B252" s="5">
+      <c r="A252" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="B252" s="4">
         <v>186</v>
       </c>
-      <c r="C252" s="5">
+      <c r="C252" s="4">
         <v>186</v>
       </c>
       <c r="F252" t="s">
@@ -5790,13 +5784,13 @@
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A253" s="36" t="s">
-        <v>284</v>
-      </c>
-      <c r="B253" s="5">
+      <c r="A253" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="B253" s="4">
         <v>187</v>
       </c>
-      <c r="C253" s="5">
+      <c r="C253" s="4">
         <v>187</v>
       </c>
       <c r="F253" t="s">
@@ -5804,13 +5798,13 @@
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A254" s="36" t="s">
-        <v>284</v>
-      </c>
-      <c r="B254" s="5">
+      <c r="A254" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="B254" s="4">
         <v>188</v>
       </c>
-      <c r="C254" s="5">
+      <c r="C254" s="4">
         <v>188</v>
       </c>
       <c r="F254" t="s">
@@ -5818,13 +5812,13 @@
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A255" s="36" t="s">
-        <v>284</v>
-      </c>
-      <c r="B255" s="5">
+      <c r="A255" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="B255" s="4">
         <v>189</v>
       </c>
-      <c r="C255" s="5">
+      <c r="C255" s="4">
         <v>189</v>
       </c>
       <c r="F255" t="s">
@@ -5832,13 +5826,13 @@
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A256" s="36" t="s">
-        <v>284</v>
-      </c>
-      <c r="B256" s="5">
+      <c r="A256" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="B256" s="4">
         <v>190</v>
       </c>
-      <c r="C256" s="5">
+      <c r="C256" s="4">
         <v>190</v>
       </c>
       <c r="F256" t="s">
@@ -5846,13 +5840,13 @@
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A257" s="36" t="s">
-        <v>284</v>
-      </c>
-      <c r="B257" s="5">
+      <c r="A257" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="B257" s="4">
         <v>191</v>
       </c>
-      <c r="C257" s="5">
+      <c r="C257" s="4">
         <v>191</v>
       </c>
       <c r="F257" t="s">
@@ -5860,13 +5854,13 @@
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A258" s="36" t="s">
-        <v>284</v>
-      </c>
-      <c r="B258" s="5">
+      <c r="A258" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="B258" s="4">
         <v>192</v>
       </c>
-      <c r="C258" s="5">
+      <c r="C258" s="4">
         <v>192</v>
       </c>
       <c r="F258" t="s">
@@ -5874,13 +5868,13 @@
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A259" s="36" t="s">
-        <v>284</v>
-      </c>
-      <c r="B259" s="5">
+      <c r="A259" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="B259" s="4">
         <v>193</v>
       </c>
-      <c r="C259" s="5">
+      <c r="C259" s="4">
         <v>193</v>
       </c>
       <c r="F259" t="s">
@@ -5888,13 +5882,13 @@
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A260" s="36" t="s">
-        <v>284</v>
-      </c>
-      <c r="B260" s="5">
+      <c r="A260" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="B260" s="4">
         <v>194</v>
       </c>
-      <c r="C260" s="5">
+      <c r="C260" s="4">
         <v>194</v>
       </c>
       <c r="F260" t="s">
@@ -5902,13 +5896,13 @@
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A261" s="36" t="s">
-        <v>284</v>
-      </c>
-      <c r="B261" s="5">
+      <c r="A261" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="B261" s="4">
         <v>195</v>
       </c>
-      <c r="C261" s="5">
+      <c r="C261" s="4">
         <v>195</v>
       </c>
       <c r="F261" t="s">
@@ -5916,13 +5910,13 @@
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A262" s="36" t="s">
-        <v>284</v>
-      </c>
-      <c r="B262" s="5">
+      <c r="A262" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="B262" s="4">
         <v>196</v>
       </c>
-      <c r="C262" s="5">
+      <c r="C262" s="4">
         <v>196</v>
       </c>
       <c r="F262" t="s">
@@ -5930,13 +5924,13 @@
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A263" s="36" t="s">
-        <v>284</v>
-      </c>
-      <c r="B263" s="5">
+      <c r="A263" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="B263" s="4">
         <v>197</v>
       </c>
-      <c r="C263" s="5">
+      <c r="C263" s="4">
         <v>197</v>
       </c>
       <c r="F263" t="s">
@@ -5944,13 +5938,13 @@
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A264" s="36" t="s">
-        <v>284</v>
-      </c>
-      <c r="B264" s="5">
+      <c r="A264" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="B264" s="4">
         <v>198</v>
       </c>
-      <c r="C264" s="5">
+      <c r="C264" s="4">
         <v>198</v>
       </c>
       <c r="F264" t="s">
@@ -5958,13 +5952,13 @@
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A265" s="36" t="s">
-        <v>284</v>
-      </c>
-      <c r="B265" s="5">
+      <c r="A265" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="B265" s="4">
         <v>199</v>
       </c>
-      <c r="C265" s="5">
+      <c r="C265" s="4">
         <v>199</v>
       </c>
       <c r="F265" t="s">
@@ -5972,13 +5966,13 @@
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A266" s="36" t="s">
-        <v>284</v>
-      </c>
-      <c r="B266" s="5">
+      <c r="A266" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="B266" s="4">
         <v>200</v>
       </c>
-      <c r="C266" s="5">
+      <c r="C266" s="4">
         <v>200</v>
       </c>
       <c r="F266" t="s">
@@ -5986,13 +5980,13 @@
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A267" s="36" t="s">
-        <v>284</v>
-      </c>
-      <c r="B267" s="5">
+      <c r="A267" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="B267" s="4">
         <v>201</v>
       </c>
-      <c r="C267" s="5">
+      <c r="C267" s="4">
         <v>201</v>
       </c>
       <c r="F267" t="s">
@@ -6000,13 +5994,13 @@
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A268" s="36" t="s">
-        <v>284</v>
-      </c>
-      <c r="B268" s="5">
+      <c r="A268" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="B268" s="4">
         <v>202</v>
       </c>
-      <c r="C268" s="5">
+      <c r="C268" s="4">
         <v>202</v>
       </c>
       <c r="F268" t="s">
@@ -6014,13 +6008,13 @@
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A269" s="36" t="s">
-        <v>284</v>
-      </c>
-      <c r="B269" s="5">
+      <c r="A269" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="B269" s="4">
         <v>203</v>
       </c>
-      <c r="C269" s="5">
+      <c r="C269" s="4">
         <v>203</v>
       </c>
       <c r="F269" t="s">
@@ -6028,13 +6022,13 @@
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A270" s="36" t="s">
-        <v>284</v>
-      </c>
-      <c r="B270" s="5">
+      <c r="A270" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="B270" s="4">
         <v>204</v>
       </c>
-      <c r="C270" s="5">
+      <c r="C270" s="4">
         <v>204</v>
       </c>
       <c r="F270" t="s">
@@ -6042,13 +6036,13 @@
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A271" s="36" t="s">
-        <v>284</v>
-      </c>
-      <c r="B271" s="5">
+      <c r="A271" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="B271" s="4">
         <v>205</v>
       </c>
-      <c r="C271" s="5">
+      <c r="C271" s="4">
         <v>205</v>
       </c>
       <c r="F271" t="s">
@@ -6056,13 +6050,13 @@
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A272" s="36" t="s">
-        <v>284</v>
-      </c>
-      <c r="B272" s="5">
+      <c r="A272" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="B272" s="4">
         <v>206</v>
       </c>
-      <c r="C272" s="5">
+      <c r="C272" s="4">
         <v>206</v>
       </c>
       <c r="F272" t="s">
@@ -6070,13 +6064,13 @@
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A273" s="36" t="s">
-        <v>284</v>
-      </c>
-      <c r="B273" s="5">
+      <c r="A273" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="B273" s="4">
         <v>207</v>
       </c>
-      <c r="C273" s="5">
+      <c r="C273" s="4">
         <v>207</v>
       </c>
       <c r="F273" t="s">
@@ -6084,13 +6078,13 @@
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A274" s="36" t="s">
-        <v>284</v>
-      </c>
-      <c r="B274" s="5">
+      <c r="A274" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="B274" s="4">
         <v>208</v>
       </c>
-      <c r="C274" s="5">
+      <c r="C274" s="4">
         <v>208</v>
       </c>
       <c r="F274" t="s">
@@ -6098,13 +6092,13 @@
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A275" s="36" t="s">
-        <v>284</v>
-      </c>
-      <c r="B275" s="5">
+      <c r="A275" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="B275" s="4">
         <v>209</v>
       </c>
-      <c r="C275" s="5">
+      <c r="C275" s="4">
         <v>209</v>
       </c>
       <c r="F275" t="s">
@@ -6112,13 +6106,13 @@
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A276" s="36" t="s">
-        <v>284</v>
-      </c>
-      <c r="B276" s="5">
+      <c r="A276" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="B276" s="4">
         <v>210</v>
       </c>
-      <c r="C276" s="5">
+      <c r="C276" s="4">
         <v>210</v>
       </c>
       <c r="F276" t="s">
@@ -6126,13 +6120,13 @@
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A277" s="36" t="s">
-        <v>284</v>
-      </c>
-      <c r="B277" s="5">
+      <c r="A277" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="B277" s="4">
         <v>211</v>
       </c>
-      <c r="C277" s="5">
+      <c r="C277" s="4">
         <v>211</v>
       </c>
       <c r="F277" t="s">
@@ -6140,13 +6134,13 @@
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A278" s="36" t="s">
-        <v>284</v>
-      </c>
-      <c r="B278" s="5">
+      <c r="A278" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="B278" s="4">
         <v>212</v>
       </c>
-      <c r="C278" s="5">
+      <c r="C278" s="4">
         <v>212</v>
       </c>
       <c r="F278" t="s">
@@ -6154,13 +6148,13 @@
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A279" s="36" t="s">
-        <v>284</v>
-      </c>
-      <c r="B279" s="5">
+      <c r="A279" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="B279" s="4">
         <v>213</v>
       </c>
-      <c r="C279" s="5">
+      <c r="C279" s="4">
         <v>213</v>
       </c>
       <c r="F279" t="s">
@@ -6168,13 +6162,13 @@
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A280" s="36" t="s">
-        <v>284</v>
-      </c>
-      <c r="B280" s="5">
+      <c r="A280" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="B280" s="4">
         <v>214</v>
       </c>
-      <c r="C280" s="5">
+      <c r="C280" s="4">
         <v>214</v>
       </c>
       <c r="F280" t="s">
@@ -6182,13 +6176,13 @@
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A281" s="36" t="s">
-        <v>284</v>
-      </c>
-      <c r="B281" s="5">
+      <c r="A281" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="B281" s="4">
         <v>215</v>
       </c>
-      <c r="C281" s="5">
+      <c r="C281" s="4">
         <v>215</v>
       </c>
       <c r="F281" t="s">
@@ -6196,27 +6190,27 @@
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A282" s="36" t="s">
-        <v>284</v>
-      </c>
-      <c r="B282" s="5">
+      <c r="A282" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="B282" s="4">
         <v>216</v>
       </c>
-      <c r="C282" s="5">
+      <c r="C282" s="4">
         <v>216</v>
       </c>
       <c r="F282" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A283" s="36" t="s">
-        <v>284</v>
-      </c>
-      <c r="B283" s="5">
+      <c r="A283" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="B283" s="4">
         <v>217</v>
       </c>
-      <c r="C283" s="5">
+      <c r="C283" s="4">
         <v>217</v>
       </c>
       <c r="F283" t="s">
@@ -6224,13 +6218,13 @@
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A284" s="36" t="s">
-        <v>284</v>
-      </c>
-      <c r="B284" s="5">
+      <c r="A284" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="B284" s="4">
         <v>218</v>
       </c>
-      <c r="C284" s="5">
+      <c r="C284" s="4">
         <v>218</v>
       </c>
       <c r="F284" t="s">
@@ -6238,13 +6232,13 @@
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A285" s="36" t="s">
-        <v>284</v>
-      </c>
-      <c r="B285" s="5">
+      <c r="A285" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="B285" s="4">
         <v>219</v>
       </c>
-      <c r="C285" s="5">
+      <c r="C285" s="4">
         <v>219</v>
       </c>
       <c r="F285" t="s">
@@ -6252,13 +6246,13 @@
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A286" s="36" t="s">
-        <v>284</v>
-      </c>
-      <c r="B286" s="5">
+      <c r="A286" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="B286" s="4">
         <v>220</v>
       </c>
-      <c r="C286" s="5">
+      <c r="C286" s="4">
         <v>220</v>
       </c>
       <c r="F286" t="s">
@@ -6266,13 +6260,13 @@
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A287" s="36" t="s">
-        <v>284</v>
-      </c>
-      <c r="B287" s="5">
+      <c r="A287" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="B287" s="4">
         <v>221</v>
       </c>
-      <c r="C287" s="5">
+      <c r="C287" s="4">
         <v>221</v>
       </c>
       <c r="F287" t="s">
@@ -6280,13 +6274,13 @@
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A288" s="36" t="s">
-        <v>284</v>
-      </c>
-      <c r="B288" s="5">
+      <c r="A288" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="B288" s="4">
         <v>222</v>
       </c>
-      <c r="C288" s="5">
+      <c r="C288" s="4">
         <v>222</v>
       </c>
       <c r="F288" t="s">
@@ -6294,13 +6288,13 @@
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A289" s="36" t="s">
-        <v>284</v>
-      </c>
-      <c r="B289" s="5">
+      <c r="A289" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="B289" s="4">
         <v>223</v>
       </c>
-      <c r="C289" s="5">
+      <c r="C289" s="4">
         <v>223</v>
       </c>
       <c r="F289" t="s">
@@ -6308,13 +6302,13 @@
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A290" s="36" t="s">
-        <v>284</v>
-      </c>
-      <c r="B290" s="5">
+      <c r="A290" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="B290" s="4">
         <v>224</v>
       </c>
-      <c r="C290" s="5">
+      <c r="C290" s="4">
         <v>224</v>
       </c>
       <c r="F290" t="s">
@@ -6322,13 +6316,13 @@
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A291" s="36" t="s">
-        <v>284</v>
-      </c>
-      <c r="B291" s="5">
+      <c r="A291" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="B291" s="4">
         <v>225</v>
       </c>
-      <c r="C291" s="5">
+      <c r="C291" s="4">
         <v>225</v>
       </c>
       <c r="F291" t="s">
@@ -6336,13 +6330,13 @@
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A292" s="36" t="s">
-        <v>284</v>
-      </c>
-      <c r="B292" s="5">
+      <c r="A292" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="B292" s="4">
         <v>226</v>
       </c>
-      <c r="C292" s="5">
+      <c r="C292" s="4">
         <v>226</v>
       </c>
       <c r="F292" t="s">
@@ -6350,13 +6344,13 @@
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A293" s="36" t="s">
-        <v>284</v>
-      </c>
-      <c r="B293" s="5">
+      <c r="A293" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="B293" s="4">
         <v>227</v>
       </c>
-      <c r="C293" s="5">
+      <c r="C293" s="4">
         <v>227</v>
       </c>
       <c r="F293" t="s">
@@ -6364,13 +6358,13 @@
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A294" s="36" t="s">
-        <v>284</v>
-      </c>
-      <c r="B294" s="5">
+      <c r="A294" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="B294" s="4">
         <v>228</v>
       </c>
-      <c r="C294" s="5">
+      <c r="C294" s="4">
         <v>228</v>
       </c>
       <c r="F294" t="s">
@@ -6378,27 +6372,27 @@
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A295" s="36" t="s">
-        <v>284</v>
-      </c>
-      <c r="B295" s="5">
+      <c r="A295" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="B295" s="4">
         <v>229</v>
       </c>
-      <c r="C295" s="5">
+      <c r="C295" s="4">
         <v>229</v>
       </c>
       <c r="F295" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A296" s="36" t="s">
-        <v>284</v>
-      </c>
-      <c r="B296" s="5">
+      <c r="A296" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="B296" s="4">
         <v>230</v>
       </c>
-      <c r="C296" s="5">
+      <c r="C296" s="4">
         <v>230</v>
       </c>
       <c r="F296" t="s">
@@ -6406,13 +6400,13 @@
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A297" s="36" t="s">
-        <v>284</v>
-      </c>
-      <c r="B297" s="5">
+      <c r="A297" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="B297" s="4">
         <v>231</v>
       </c>
-      <c r="C297" s="5">
+      <c r="C297" s="4">
         <v>231</v>
       </c>
       <c r="F297" t="s">
@@ -6420,13 +6414,13 @@
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A298" s="36" t="s">
-        <v>284</v>
-      </c>
-      <c r="B298" s="5">
+      <c r="A298" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="B298" s="4">
         <v>232</v>
       </c>
-      <c r="C298" s="5">
+      <c r="C298" s="4">
         <v>232</v>
       </c>
       <c r="F298" t="s">
@@ -6434,13 +6428,13 @@
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A299" s="36" t="s">
-        <v>284</v>
-      </c>
-      <c r="B299" s="5">
+      <c r="A299" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="B299" s="4">
         <v>233</v>
       </c>
-      <c r="C299" s="5">
+      <c r="C299" s="4">
         <v>233</v>
       </c>
       <c r="F299" t="s">
@@ -6448,13 +6442,13 @@
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A300" s="36" t="s">
-        <v>284</v>
-      </c>
-      <c r="B300" s="5">
+      <c r="A300" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="B300" s="4">
         <v>234</v>
       </c>
-      <c r="C300" s="5">
+      <c r="C300" s="4">
         <v>234</v>
       </c>
       <c r="F300" t="s">
@@ -6462,13 +6456,13 @@
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A301" s="36" t="s">
-        <v>284</v>
-      </c>
-      <c r="B301" s="5">
+      <c r="A301" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="B301" s="4">
         <v>235</v>
       </c>
-      <c r="C301" s="5">
+      <c r="C301" s="4">
         <v>235</v>
       </c>
       <c r="F301" t="s">
@@ -6476,508 +6470,508 @@
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B302" s="4"/>
-      <c r="C302" s="4"/>
+      <c r="B302" s="3"/>
+      <c r="C302" s="3"/>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B303" s="4"/>
-      <c r="C303" s="4"/>
+      <c r="B303" s="3"/>
+      <c r="C303" s="3"/>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B304" s="4"/>
-      <c r="C304" s="4"/>
+      <c r="B304" s="3"/>
+      <c r="C304" s="3"/>
     </row>
     <row r="305" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B305" s="4"/>
-      <c r="C305" s="4"/>
+      <c r="B305" s="3"/>
+      <c r="C305" s="3"/>
     </row>
     <row r="306" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B306" s="4"/>
-      <c r="C306" s="4"/>
+      <c r="B306" s="3"/>
+      <c r="C306" s="3"/>
     </row>
     <row r="307" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B307" s="4"/>
-      <c r="C307" s="4"/>
+      <c r="B307" s="3"/>
+      <c r="C307" s="3"/>
     </row>
     <row r="308" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B308" s="4"/>
-      <c r="C308" s="4"/>
+      <c r="B308" s="3"/>
+      <c r="C308" s="3"/>
     </row>
     <row r="309" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B309" s="4"/>
-      <c r="C309" s="4"/>
+      <c r="B309" s="3"/>
+      <c r="C309" s="3"/>
     </row>
     <row r="310" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B310" s="4"/>
-      <c r="C310" s="4"/>
+      <c r="B310" s="3"/>
+      <c r="C310" s="3"/>
     </row>
     <row r="311" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B311" s="4"/>
-      <c r="C311" s="4"/>
+      <c r="B311" s="3"/>
+      <c r="C311" s="3"/>
     </row>
     <row r="312" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B312" s="4"/>
-      <c r="C312" s="4"/>
+      <c r="B312" s="3"/>
+      <c r="C312" s="3"/>
     </row>
     <row r="313" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B313" s="4"/>
-      <c r="C313" s="4"/>
+      <c r="B313" s="3"/>
+      <c r="C313" s="3"/>
     </row>
     <row r="314" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B314" s="4"/>
-      <c r="C314" s="4"/>
+      <c r="B314" s="3"/>
+      <c r="C314" s="3"/>
     </row>
     <row r="315" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B315" s="4"/>
-      <c r="C315" s="4"/>
+      <c r="B315" s="3"/>
+      <c r="C315" s="3"/>
     </row>
     <row r="316" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B316" s="4"/>
-      <c r="C316" s="4"/>
+      <c r="B316" s="3"/>
+      <c r="C316" s="3"/>
     </row>
     <row r="317" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B317" s="4"/>
-      <c r="C317" s="4"/>
+      <c r="B317" s="3"/>
+      <c r="C317" s="3"/>
     </row>
     <row r="318" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B318" s="4"/>
-      <c r="C318" s="4"/>
+      <c r="B318" s="3"/>
+      <c r="C318" s="3"/>
     </row>
     <row r="319" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B319" s="4"/>
-      <c r="C319" s="4"/>
+      <c r="B319" s="3"/>
+      <c r="C319" s="3"/>
     </row>
     <row r="320" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B320" s="4"/>
-      <c r="C320" s="4"/>
+      <c r="B320" s="3"/>
+      <c r="C320" s="3"/>
     </row>
     <row r="321" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B321" s="4"/>
-      <c r="C321" s="4"/>
+      <c r="B321" s="3"/>
+      <c r="C321" s="3"/>
     </row>
     <row r="322" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B322" s="4"/>
-      <c r="C322" s="4"/>
+      <c r="B322" s="3"/>
+      <c r="C322" s="3"/>
     </row>
     <row r="323" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B323" s="4"/>
-      <c r="C323" s="4"/>
+      <c r="B323" s="3"/>
+      <c r="C323" s="3"/>
     </row>
     <row r="324" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B324" s="4"/>
-      <c r="C324" s="4"/>
+      <c r="B324" s="3"/>
+      <c r="C324" s="3"/>
     </row>
     <row r="325" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B325" s="4"/>
-      <c r="C325" s="4"/>
+      <c r="B325" s="3"/>
+      <c r="C325" s="3"/>
     </row>
     <row r="326" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B326" s="4"/>
-      <c r="C326" s="4"/>
+      <c r="B326" s="3"/>
+      <c r="C326" s="3"/>
     </row>
     <row r="327" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B327" s="4"/>
-      <c r="C327" s="4"/>
+      <c r="B327" s="3"/>
+      <c r="C327" s="3"/>
     </row>
     <row r="328" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B328" s="4"/>
-      <c r="C328" s="4"/>
+      <c r="B328" s="3"/>
+      <c r="C328" s="3"/>
     </row>
     <row r="329" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B329" s="4"/>
-      <c r="C329" s="4"/>
+      <c r="B329" s="3"/>
+      <c r="C329" s="3"/>
     </row>
     <row r="330" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B330" s="4"/>
-      <c r="C330" s="4"/>
+      <c r="B330" s="3"/>
+      <c r="C330" s="3"/>
     </row>
     <row r="331" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B331" s="4"/>
-      <c r="C331" s="4"/>
+      <c r="B331" s="3"/>
+      <c r="C331" s="3"/>
     </row>
     <row r="332" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B332" s="4"/>
-      <c r="C332" s="4"/>
+      <c r="B332" s="3"/>
+      <c r="C332" s="3"/>
     </row>
     <row r="333" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B333" s="4"/>
-      <c r="C333" s="4"/>
+      <c r="B333" s="3"/>
+      <c r="C333" s="3"/>
     </row>
     <row r="334" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B334" s="4"/>
-      <c r="C334" s="4"/>
+      <c r="B334" s="3"/>
+      <c r="C334" s="3"/>
     </row>
     <row r="335" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B335" s="4"/>
-      <c r="C335" s="4"/>
+      <c r="B335" s="3"/>
+      <c r="C335" s="3"/>
     </row>
     <row r="336" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B336" s="4"/>
-      <c r="C336" s="4"/>
+      <c r="B336" s="3"/>
+      <c r="C336" s="3"/>
     </row>
     <row r="337" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B337" s="4"/>
-      <c r="C337" s="4"/>
+      <c r="B337" s="3"/>
+      <c r="C337" s="3"/>
     </row>
     <row r="338" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B338" s="4"/>
-      <c r="C338" s="4"/>
+      <c r="B338" s="3"/>
+      <c r="C338" s="3"/>
     </row>
     <row r="339" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B339" s="4"/>
-      <c r="C339" s="4"/>
+      <c r="B339" s="3"/>
+      <c r="C339" s="3"/>
     </row>
     <row r="340" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B340" s="4"/>
-      <c r="C340" s="4"/>
+      <c r="B340" s="3"/>
+      <c r="C340" s="3"/>
     </row>
     <row r="341" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B341" s="4"/>
-      <c r="C341" s="4"/>
+      <c r="B341" s="3"/>
+      <c r="C341" s="3"/>
     </row>
     <row r="342" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B342" s="4"/>
-      <c r="C342" s="4"/>
+      <c r="B342" s="3"/>
+      <c r="C342" s="3"/>
     </row>
     <row r="343" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B343" s="4"/>
-      <c r="C343" s="4"/>
+      <c r="B343" s="3"/>
+      <c r="C343" s="3"/>
     </row>
     <row r="344" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B344" s="4"/>
-      <c r="C344" s="4"/>
+      <c r="B344" s="3"/>
+      <c r="C344" s="3"/>
     </row>
     <row r="345" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B345" s="4"/>
-      <c r="C345" s="4"/>
+      <c r="B345" s="3"/>
+      <c r="C345" s="3"/>
     </row>
     <row r="346" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B346" s="4"/>
-      <c r="C346" s="4"/>
+      <c r="B346" s="3"/>
+      <c r="C346" s="3"/>
     </row>
     <row r="347" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B347" s="4"/>
-      <c r="C347" s="4"/>
+      <c r="B347" s="3"/>
+      <c r="C347" s="3"/>
     </row>
     <row r="348" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B348" s="4"/>
-      <c r="C348" s="4"/>
+      <c r="B348" s="3"/>
+      <c r="C348" s="3"/>
     </row>
     <row r="349" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B349" s="4"/>
-      <c r="C349" s="4"/>
+      <c r="B349" s="3"/>
+      <c r="C349" s="3"/>
     </row>
     <row r="350" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B350" s="4"/>
-      <c r="C350" s="4"/>
+      <c r="B350" s="3"/>
+      <c r="C350" s="3"/>
     </row>
     <row r="351" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B351" s="4"/>
-      <c r="C351" s="4"/>
+      <c r="B351" s="3"/>
+      <c r="C351" s="3"/>
     </row>
     <row r="352" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B352" s="4"/>
-      <c r="C352" s="4"/>
+      <c r="B352" s="3"/>
+      <c r="C352" s="3"/>
     </row>
     <row r="353" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B353" s="4"/>
-      <c r="C353" s="4"/>
+      <c r="B353" s="3"/>
+      <c r="C353" s="3"/>
     </row>
     <row r="354" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B354" s="4"/>
-      <c r="C354" s="4"/>
+      <c r="B354" s="3"/>
+      <c r="C354" s="3"/>
     </row>
     <row r="355" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B355" s="4"/>
-      <c r="C355" s="4"/>
+      <c r="B355" s="3"/>
+      <c r="C355" s="3"/>
     </row>
     <row r="356" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B356" s="4"/>
-      <c r="C356" s="4"/>
+      <c r="B356" s="3"/>
+      <c r="C356" s="3"/>
     </row>
     <row r="357" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B357" s="4"/>
-      <c r="C357" s="4"/>
+      <c r="B357" s="3"/>
+      <c r="C357" s="3"/>
     </row>
     <row r="358" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B358" s="4"/>
-      <c r="C358" s="4"/>
+      <c r="B358" s="3"/>
+      <c r="C358" s="3"/>
     </row>
     <row r="359" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B359" s="4"/>
-      <c r="C359" s="4"/>
+      <c r="B359" s="3"/>
+      <c r="C359" s="3"/>
     </row>
     <row r="360" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B360" s="4"/>
-      <c r="C360" s="4"/>
+      <c r="B360" s="3"/>
+      <c r="C360" s="3"/>
     </row>
     <row r="361" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B361" s="4"/>
-      <c r="C361" s="4"/>
+      <c r="B361" s="3"/>
+      <c r="C361" s="3"/>
     </row>
     <row r="362" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B362" s="4"/>
-      <c r="C362" s="4"/>
+      <c r="B362" s="3"/>
+      <c r="C362" s="3"/>
     </row>
     <row r="363" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B363" s="4"/>
-      <c r="C363" s="4"/>
+      <c r="B363" s="3"/>
+      <c r="C363" s="3"/>
     </row>
     <row r="364" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B364" s="4"/>
-      <c r="C364" s="4"/>
+      <c r="B364" s="3"/>
+      <c r="C364" s="3"/>
     </row>
     <row r="365" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B365" s="4"/>
-      <c r="C365" s="4"/>
+      <c r="B365" s="3"/>
+      <c r="C365" s="3"/>
     </row>
     <row r="366" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B366" s="4"/>
-      <c r="C366" s="4"/>
+      <c r="B366" s="3"/>
+      <c r="C366" s="3"/>
     </row>
     <row r="367" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B367" s="4"/>
-      <c r="C367" s="4"/>
+      <c r="B367" s="3"/>
+      <c r="C367" s="3"/>
     </row>
     <row r="368" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B368" s="4"/>
-      <c r="C368" s="4"/>
+      <c r="B368" s="3"/>
+      <c r="C368" s="3"/>
     </row>
     <row r="369" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B369" s="4"/>
-      <c r="C369" s="4"/>
+      <c r="B369" s="3"/>
+      <c r="C369" s="3"/>
     </row>
     <row r="370" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B370" s="4"/>
-      <c r="C370" s="4"/>
+      <c r="B370" s="3"/>
+      <c r="C370" s="3"/>
     </row>
     <row r="371" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B371" s="4"/>
-      <c r="C371" s="4"/>
+      <c r="B371" s="3"/>
+      <c r="C371" s="3"/>
     </row>
     <row r="372" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B372" s="4"/>
-      <c r="C372" s="4"/>
+      <c r="B372" s="3"/>
+      <c r="C372" s="3"/>
     </row>
     <row r="373" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B373" s="4"/>
-      <c r="C373" s="4"/>
+      <c r="B373" s="3"/>
+      <c r="C373" s="3"/>
     </row>
     <row r="374" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B374" s="4"/>
-      <c r="C374" s="4"/>
+      <c r="B374" s="3"/>
+      <c r="C374" s="3"/>
     </row>
     <row r="375" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B375" s="4"/>
-      <c r="C375" s="4"/>
+      <c r="B375" s="3"/>
+      <c r="C375" s="3"/>
     </row>
     <row r="376" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B376" s="4"/>
-      <c r="C376" s="4"/>
+      <c r="B376" s="3"/>
+      <c r="C376" s="3"/>
     </row>
     <row r="377" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B377" s="4"/>
-      <c r="C377" s="4"/>
+      <c r="B377" s="3"/>
+      <c r="C377" s="3"/>
     </row>
     <row r="378" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B378" s="4"/>
-      <c r="C378" s="4"/>
+      <c r="B378" s="3"/>
+      <c r="C378" s="3"/>
     </row>
     <row r="379" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B379" s="4"/>
-      <c r="C379" s="4"/>
+      <c r="B379" s="3"/>
+      <c r="C379" s="3"/>
     </row>
     <row r="380" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B380" s="4"/>
-      <c r="C380" s="4"/>
+      <c r="B380" s="3"/>
+      <c r="C380" s="3"/>
     </row>
     <row r="381" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B381" s="4"/>
-      <c r="C381" s="4"/>
+      <c r="B381" s="3"/>
+      <c r="C381" s="3"/>
     </row>
     <row r="382" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B382" s="4"/>
-      <c r="C382" s="4"/>
+      <c r="B382" s="3"/>
+      <c r="C382" s="3"/>
     </row>
     <row r="383" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B383" s="4"/>
-      <c r="C383" s="4"/>
+      <c r="B383" s="3"/>
+      <c r="C383" s="3"/>
     </row>
     <row r="384" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B384" s="4"/>
-      <c r="C384" s="4"/>
+      <c r="B384" s="3"/>
+      <c r="C384" s="3"/>
     </row>
     <row r="385" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B385" s="4"/>
-      <c r="C385" s="4"/>
+      <c r="B385" s="3"/>
+      <c r="C385" s="3"/>
     </row>
     <row r="386" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B386" s="4"/>
-      <c r="C386" s="4"/>
+      <c r="B386" s="3"/>
+      <c r="C386" s="3"/>
     </row>
     <row r="387" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B387" s="4"/>
-      <c r="C387" s="4"/>
+      <c r="B387" s="3"/>
+      <c r="C387" s="3"/>
     </row>
     <row r="388" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B388" s="4"/>
-      <c r="C388" s="4"/>
+      <c r="B388" s="3"/>
+      <c r="C388" s="3"/>
     </row>
     <row r="389" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B389" s="4"/>
-      <c r="C389" s="4"/>
+      <c r="B389" s="3"/>
+      <c r="C389" s="3"/>
     </row>
     <row r="390" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B390" s="4"/>
-      <c r="C390" s="4"/>
+      <c r="B390" s="3"/>
+      <c r="C390" s="3"/>
     </row>
     <row r="391" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B391" s="4"/>
-      <c r="C391" s="4"/>
+      <c r="B391" s="3"/>
+      <c r="C391" s="3"/>
     </row>
     <row r="392" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B392" s="4"/>
-      <c r="C392" s="4"/>
+      <c r="B392" s="3"/>
+      <c r="C392" s="3"/>
     </row>
     <row r="393" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B393" s="4"/>
-      <c r="C393" s="4"/>
+      <c r="B393" s="3"/>
+      <c r="C393" s="3"/>
     </row>
     <row r="394" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B394" s="4"/>
-      <c r="C394" s="4"/>
+      <c r="B394" s="3"/>
+      <c r="C394" s="3"/>
     </row>
     <row r="395" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B395" s="4"/>
-      <c r="C395" s="4"/>
+      <c r="B395" s="3"/>
+      <c r="C395" s="3"/>
     </row>
     <row r="396" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B396" s="4"/>
-      <c r="C396" s="4"/>
+      <c r="B396" s="3"/>
+      <c r="C396" s="3"/>
     </row>
     <row r="397" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B397" s="4"/>
-      <c r="C397" s="4"/>
+      <c r="B397" s="3"/>
+      <c r="C397" s="3"/>
     </row>
     <row r="398" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B398" s="4"/>
-      <c r="C398" s="4"/>
+      <c r="B398" s="3"/>
+      <c r="C398" s="3"/>
     </row>
     <row r="399" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B399" s="4"/>
-      <c r="C399" s="4"/>
+      <c r="B399" s="3"/>
+      <c r="C399" s="3"/>
     </row>
     <row r="400" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B400" s="4"/>
-      <c r="C400" s="4"/>
+      <c r="B400" s="3"/>
+      <c r="C400" s="3"/>
     </row>
     <row r="401" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B401" s="4"/>
-      <c r="C401" s="4"/>
+      <c r="B401" s="3"/>
+      <c r="C401" s="3"/>
     </row>
     <row r="402" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B402" s="4"/>
-      <c r="C402" s="4"/>
+      <c r="B402" s="3"/>
+      <c r="C402" s="3"/>
     </row>
     <row r="403" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B403" s="4"/>
-      <c r="C403" s="4"/>
+      <c r="B403" s="3"/>
+      <c r="C403" s="3"/>
     </row>
     <row r="404" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B404" s="4"/>
-      <c r="C404" s="4"/>
+      <c r="B404" s="3"/>
+      <c r="C404" s="3"/>
     </row>
     <row r="405" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B405" s="4"/>
-      <c r="C405" s="4"/>
+      <c r="B405" s="3"/>
+      <c r="C405" s="3"/>
     </row>
     <row r="406" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B406" s="4"/>
-      <c r="C406" s="4"/>
+      <c r="B406" s="3"/>
+      <c r="C406" s="3"/>
     </row>
     <row r="407" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B407" s="4"/>
-      <c r="C407" s="4"/>
+      <c r="B407" s="3"/>
+      <c r="C407" s="3"/>
     </row>
     <row r="408" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B408" s="4"/>
-      <c r="C408" s="4"/>
+      <c r="B408" s="3"/>
+      <c r="C408" s="3"/>
     </row>
     <row r="409" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B409" s="4"/>
-      <c r="C409" s="4"/>
+      <c r="B409" s="3"/>
+      <c r="C409" s="3"/>
     </row>
     <row r="410" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B410" s="4"/>
-      <c r="C410" s="4"/>
+      <c r="B410" s="3"/>
+      <c r="C410" s="3"/>
     </row>
     <row r="411" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B411" s="4"/>
-      <c r="C411" s="4"/>
+      <c r="B411" s="3"/>
+      <c r="C411" s="3"/>
     </row>
     <row r="412" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B412" s="4"/>
-      <c r="C412" s="4"/>
+      <c r="B412" s="3"/>
+      <c r="C412" s="3"/>
     </row>
     <row r="413" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B413" s="4"/>
-      <c r="C413" s="4"/>
+      <c r="B413" s="3"/>
+      <c r="C413" s="3"/>
     </row>
     <row r="414" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B414" s="4"/>
-      <c r="C414" s="4"/>
+      <c r="B414" s="3"/>
+      <c r="C414" s="3"/>
     </row>
     <row r="415" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B415" s="4"/>
-      <c r="C415" s="4"/>
+      <c r="B415" s="3"/>
+      <c r="C415" s="3"/>
     </row>
     <row r="416" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C416" s="4"/>
+      <c r="C416" s="3"/>
     </row>
     <row r="417" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C417" s="4"/>
+      <c r="C417" s="3"/>
     </row>
     <row r="418" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C418" s="4"/>
+      <c r="C418" s="3"/>
     </row>
     <row r="419" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C419" s="4"/>
+      <c r="C419" s="3"/>
     </row>
     <row r="420" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C420" s="4"/>
+      <c r="C420" s="3"/>
     </row>
     <row r="421" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C421" s="4"/>
+      <c r="C421" s="3"/>
     </row>
     <row r="422" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C422" s="4"/>
+      <c r="C422" s="3"/>
     </row>
     <row r="423" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C423" s="4"/>
+      <c r="C423" s="3"/>
     </row>
     <row r="424" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C424" s="4"/>
+      <c r="C424" s="3"/>
     </row>
     <row r="425" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C425" s="4"/>
+      <c r="C425" s="3"/>
     </row>
     <row r="426" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C426" s="4"/>
+      <c r="C426" s="3"/>
     </row>
     <row r="427" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C427" s="4"/>
+      <c r="C427" s="3"/>
     </row>
     <row r="428" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C428" s="4"/>
+      <c r="C428" s="3"/>
     </row>
     <row r="429" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C429" s="4"/>
+      <c r="C429" s="3"/>
     </row>
     <row r="430" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C430" s="4"/>
+      <c r="C430" s="3"/>
     </row>
     <row r="431" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C431" s="4"/>
+      <c r="C431" s="3"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C31:C165">
@@ -6992,14 +6986,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="49" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.875" customWidth="1"/>
+    <col min="2" max="2" width="38.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -7014,11 +7008,11 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>285</v>
+      <c r="A2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B2" t="s">
+        <v>295</v>
       </c>
       <c r="C2" t="s">
         <v>32</v>

--- a/SCH-STH/Impact assessments/Malawi/mw_sch_sth_impact_202404_1_site_child.xlsx
+++ b/SCH-STH/Impact assessments/Malawi/mw_sch_sth_impact_202404_1_site_child.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\SCH-STH\Impact assessments\Malawi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B28A66C3-AA8C-4E1B-9B7B-528717203468}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2144319-CD69-4F9C-A3A6-2CEAF07D3B57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -924,9 +924,6 @@
     <t>Participant registration</t>
   </si>
   <si>
-    <t>concat(${w_school_id}, '_', ${p_index})</t>
-  </si>
-  <si>
     <t>school = ${w_school}</t>
   </si>
   <si>
@@ -936,13 +933,16 @@
     <t>M BWABWA</t>
   </si>
   <si>
-    <t>(2024 Apr) - 1. SCH/STH – Site &amp; Participant Registration V2</t>
-  </si>
-  <si>
-    <t>mw_sch_sth_ia_202404_1_site_child_v2</t>
-  </si>
-  <si>
-    <t>mw_sch_p_202404_v2</t>
+    <t>mw_sch_sth_ia_202404_1_sit_chi_v2_1</t>
+  </si>
+  <si>
+    <t>(2024 Apr) - 1. SCH/STH – Site &amp; Participant Registration V2.1</t>
+  </si>
+  <si>
+    <t>mw_sch_p_2404_v2_1</t>
+  </si>
+  <si>
+    <t>concat(${w_recorder}, '_', ${w_school_id}, '_', ${p_index})</t>
   </si>
 </sst>
 </file>
@@ -1480,11 +1480,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B16" sqref="B16"/>
+      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1688,7 +1688,7 @@
       </c>
       <c r="K7" s="8"/>
       <c r="L7" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1849,7 +1849,7 @@
         <v>41</v>
       </c>
       <c r="B15" s="32" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C15" s="23" t="s">
         <v>62</v>
@@ -2000,7 +2000,7 @@
       <c r="K21" s="8"/>
       <c r="L21" s="8"/>
     </row>
-    <row r="22" spans="1:13" s="12" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" s="12" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>15</v>
       </c>
@@ -2020,7 +2020,7 @@
         <v>98</v>
       </c>
       <c r="I22" s="18" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="J22" s="8" t="s">
         <v>9</v>
@@ -3237,7 +3237,7 @@
         <v>132</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C70" t="s">
         <v>188</v>
@@ -3797,7 +3797,7 @@
         <v>132</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C110" t="s">
         <v>228</v>
@@ -6200,7 +6200,7 @@
         <v>216</v>
       </c>
       <c r="F282" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.25">
@@ -6382,7 +6382,7 @@
         <v>229</v>
       </c>
       <c r="F295" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.25">
@@ -6986,8 +6986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7012,7 +7012,7 @@
         <v>294</v>
       </c>
       <c r="B2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C2" t="s">
         <v>32</v>

--- a/SCH-STH/Impact assessments/Malawi/mw_sch_sth_impact_202404_1_site_child.xlsx
+++ b/SCH-STH/Impact assessments/Malawi/mw_sch_sth_impact_202404_1_site_child.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\SCH-STH\Impact assessments\Malawi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bonhe\Repositories\dsa-forms\SCH-STH\Impact assessments\Malawi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2144319-CD69-4F9C-A3A6-2CEAF07D3B57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC8FB727-BFC4-42F4-9462-DAF065278F0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -504,12 +504,6 @@
     <t>MACHINGA</t>
   </si>
   <si>
-    <t>BEREU</t>
-  </si>
-  <si>
-    <t>CHILONGOMA</t>
-  </si>
-  <si>
     <t>CHIPHAZI</t>
   </si>
   <si>
@@ -531,9 +525,6 @@
     <t>MAMBALA</t>
   </si>
   <si>
-    <t>MANGULENJE</t>
-  </si>
-  <si>
     <t>MAPELERA</t>
   </si>
   <si>
@@ -933,16 +924,25 @@
     <t>M BWABWA</t>
   </si>
   <si>
-    <t>mw_sch_sth_ia_202404_1_sit_chi_v2_1</t>
-  </si>
-  <si>
-    <t>(2024 Apr) - 1. SCH/STH – Site &amp; Participant Registration V2.1</t>
-  </si>
-  <si>
-    <t>mw_sch_p_2404_v2_1</t>
-  </si>
-  <si>
     <t>concat(${w_recorder}, '_', ${w_school_id}, '_', ${p_index})</t>
+  </si>
+  <si>
+    <t>mw_sch_sth_ia_202404_1_sit_chi_v2_2</t>
+  </si>
+  <si>
+    <t>(2024 Apr) - 1. SCH/STH – Site &amp; Participant Registration V2.2</t>
+  </si>
+  <si>
+    <t>mw_sch_p_2404_v2_2</t>
+  </si>
+  <si>
+    <t>NJELEZA</t>
+  </si>
+  <si>
+    <t>NTAWA</t>
+  </si>
+  <si>
+    <t>CHIGAMBATUKA</t>
   </si>
 </sst>
 </file>
@@ -1484,7 +1484,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomRight" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1549,7 +1549,7 @@
         <v>16</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>38</v>
@@ -1577,10 +1577,10 @@
         <v>11</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D3" s="36"/>
       <c r="E3" s="37"/>
@@ -1688,7 +1688,7 @@
       </c>
       <c r="K7" s="8"/>
       <c r="L7" s="8" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1808,10 +1808,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="35" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C13" s="36" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D13" s="36"/>
       <c r="E13" s="37"/>
@@ -1849,7 +1849,7 @@
         <v>41</v>
       </c>
       <c r="B15" s="32" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C15" s="23" t="s">
         <v>62</v>
@@ -2020,7 +2020,7 @@
         <v>98</v>
       </c>
       <c r="I22" s="18" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="J22" s="8" t="s">
         <v>9</v>
@@ -2358,8 +2358,8 @@
   <dimension ref="A1:F431"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C113" sqref="C113"/>
+      <pane ySplit="1" topLeftCell="A182" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F206" sqref="F206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2691,10 +2691,10 @@
         <v>132</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>150</v>
+        <v>296</v>
       </c>
       <c r="C31" t="s">
-        <v>150</v>
+        <v>296</v>
       </c>
       <c r="E31" t="s">
         <v>148</v>
@@ -2705,10 +2705,10 @@
         <v>132</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>151</v>
+        <v>294</v>
       </c>
       <c r="C32" t="s">
-        <v>151</v>
+        <v>294</v>
       </c>
       <c r="E32" t="s">
         <v>148</v>
@@ -2719,10 +2719,10 @@
         <v>132</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C33" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E33" t="s">
         <v>148</v>
@@ -2733,10 +2733,10 @@
         <v>132</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C34" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E34" t="s">
         <v>148</v>
@@ -2747,10 +2747,10 @@
         <v>132</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C35" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E35" t="s">
         <v>148</v>
@@ -2761,10 +2761,10 @@
         <v>132</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C36" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E36" t="s">
         <v>148</v>
@@ -2775,10 +2775,10 @@
         <v>132</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C37" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E37" t="s">
         <v>148</v>
@@ -2789,10 +2789,10 @@
         <v>132</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C38" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E38" t="s">
         <v>148</v>
@@ -2803,10 +2803,10 @@
         <v>132</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C39" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E39" t="s">
         <v>148</v>
@@ -2817,10 +2817,10 @@
         <v>132</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>159</v>
+        <v>295</v>
       </c>
       <c r="C40" t="s">
-        <v>159</v>
+        <v>295</v>
       </c>
       <c r="E40" t="s">
         <v>148</v>
@@ -2831,10 +2831,10 @@
         <v>132</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C41" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E41" t="s">
         <v>148</v>
@@ -2845,10 +2845,10 @@
         <v>132</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C42" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E42" t="s">
         <v>148</v>
@@ -2859,10 +2859,10 @@
         <v>132</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C43" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E43" t="s">
         <v>148</v>
@@ -2873,10 +2873,10 @@
         <v>132</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C44" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E44" t="s">
         <v>148</v>
@@ -2887,10 +2887,10 @@
         <v>132</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C45" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E45" t="s">
         <v>148</v>
@@ -2901,10 +2901,10 @@
         <v>132</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C46" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E46" t="s">
         <v>145</v>
@@ -2915,10 +2915,10 @@
         <v>132</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C47" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E47" t="s">
         <v>145</v>
@@ -2943,10 +2943,10 @@
         <v>132</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C49" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E49" t="s">
         <v>145</v>
@@ -2957,10 +2957,10 @@
         <v>132</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C50" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E50" t="s">
         <v>145</v>
@@ -2971,10 +2971,10 @@
         <v>132</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C51" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E51" t="s">
         <v>145</v>
@@ -2985,10 +2985,10 @@
         <v>132</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C52" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E52" t="s">
         <v>145</v>
@@ -2999,10 +2999,10 @@
         <v>132</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C53" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E53" t="s">
         <v>145</v>
@@ -3013,10 +3013,10 @@
         <v>132</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C54" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E54" t="s">
         <v>145</v>
@@ -3027,10 +3027,10 @@
         <v>132</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C55" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E55" t="s">
         <v>145</v>
@@ -3041,10 +3041,10 @@
         <v>132</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C56" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E56" t="s">
         <v>145</v>
@@ -3055,10 +3055,10 @@
         <v>132</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C57" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E57" t="s">
         <v>145</v>
@@ -3069,10 +3069,10 @@
         <v>132</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C58" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E58" t="s">
         <v>145</v>
@@ -3083,10 +3083,10 @@
         <v>132</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C59" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E59" t="s">
         <v>145</v>
@@ -3097,10 +3097,10 @@
         <v>132</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C60" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E60" t="s">
         <v>145</v>
@@ -3111,10 +3111,10 @@
         <v>132</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C61" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E61" t="s">
         <v>146</v>
@@ -3125,10 +3125,10 @@
         <v>132</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C62" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E62" t="s">
         <v>146</v>
@@ -3139,10 +3139,10 @@
         <v>132</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C63" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E63" t="s">
         <v>146</v>
@@ -3153,10 +3153,10 @@
         <v>132</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C64" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E64" t="s">
         <v>146</v>
@@ -3167,10 +3167,10 @@
         <v>132</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C65" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E65" t="s">
         <v>146</v>
@@ -3181,10 +3181,10 @@
         <v>132</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C66" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E66" t="s">
         <v>146</v>
@@ -3195,10 +3195,10 @@
         <v>132</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C67" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E67" t="s">
         <v>146</v>
@@ -3209,10 +3209,10 @@
         <v>132</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C68" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E68" t="s">
         <v>146</v>
@@ -3223,10 +3223,10 @@
         <v>132</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C69" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E69" t="s">
         <v>146</v>
@@ -3237,10 +3237,10 @@
         <v>132</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C70" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E70" t="s">
         <v>146</v>
@@ -3251,10 +3251,10 @@
         <v>132</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C71" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E71" t="s">
         <v>146</v>
@@ -3265,10 +3265,10 @@
         <v>132</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C72" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E72" t="s">
         <v>146</v>
@@ -3279,10 +3279,10 @@
         <v>132</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C73" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E73" t="s">
         <v>146</v>
@@ -3293,10 +3293,10 @@
         <v>132</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C74" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E74" t="s">
         <v>146</v>
@@ -3307,10 +3307,10 @@
         <v>132</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C75" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E75" t="s">
         <v>146</v>
@@ -3321,10 +3321,10 @@
         <v>132</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C76" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E76" t="s">
         <v>146</v>
@@ -3335,10 +3335,10 @@
         <v>132</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C77" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E77" t="s">
         <v>146</v>
@@ -3349,10 +3349,10 @@
         <v>132</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C78" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E78" t="s">
         <v>146</v>
@@ -3363,10 +3363,10 @@
         <v>132</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C79" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E79" t="s">
         <v>146</v>
@@ -3377,10 +3377,10 @@
         <v>132</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C80" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E80" t="s">
         <v>146</v>
@@ -3391,10 +3391,10 @@
         <v>132</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C81" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E81" t="s">
         <v>146</v>
@@ -3405,10 +3405,10 @@
         <v>132</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C82" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E82" t="s">
         <v>146</v>
@@ -3419,10 +3419,10 @@
         <v>132</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C83" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E83" t="s">
         <v>146</v>
@@ -3433,10 +3433,10 @@
         <v>132</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C84" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E84" t="s">
         <v>146</v>
@@ -3447,10 +3447,10 @@
         <v>132</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C85" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E85" t="s">
         <v>146</v>
@@ -3461,10 +3461,10 @@
         <v>132</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C86" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E86" t="s">
         <v>146</v>
@@ -3475,10 +3475,10 @@
         <v>132</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C87" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E87" t="s">
         <v>146</v>
@@ -3489,10 +3489,10 @@
         <v>132</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C88" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E88" t="s">
         <v>146</v>
@@ -3503,10 +3503,10 @@
         <v>132</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C89" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E89" t="s">
         <v>146</v>
@@ -3517,10 +3517,10 @@
         <v>132</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C90" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E90" t="s">
         <v>146</v>
@@ -3531,10 +3531,10 @@
         <v>132</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C91" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E91" t="s">
         <v>146</v>
@@ -3545,10 +3545,10 @@
         <v>132</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C92" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E92" t="s">
         <v>146</v>
@@ -3559,10 +3559,10 @@
         <v>132</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C93" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E93" t="s">
         <v>146</v>
@@ -3573,10 +3573,10 @@
         <v>132</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C94" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E94" t="s">
         <v>146</v>
@@ -3587,10 +3587,10 @@
         <v>132</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C95" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E95" t="s">
         <v>146</v>
@@ -3601,10 +3601,10 @@
         <v>132</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C96" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E96" t="s">
         <v>146</v>
@@ -3615,10 +3615,10 @@
         <v>132</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C97" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E97" t="s">
         <v>146</v>
@@ -3629,10 +3629,10 @@
         <v>132</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C98" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E98" t="s">
         <v>146</v>
@@ -3643,10 +3643,10 @@
         <v>132</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C99" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E99" t="s">
         <v>146</v>
@@ -3657,10 +3657,10 @@
         <v>132</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C100" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E100" t="s">
         <v>146</v>
@@ -3671,10 +3671,10 @@
         <v>132</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C101" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E101" t="s">
         <v>146</v>
@@ -3685,10 +3685,10 @@
         <v>132</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C102" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E102" t="s">
         <v>146</v>
@@ -3699,10 +3699,10 @@
         <v>132</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C103" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E103" t="s">
         <v>146</v>
@@ -3713,10 +3713,10 @@
         <v>132</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C104" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E104" t="s">
         <v>146</v>
@@ -3727,10 +3727,10 @@
         <v>132</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C105" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E105" t="s">
         <v>146</v>
@@ -3741,10 +3741,10 @@
         <v>132</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C106" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E106" t="s">
         <v>146</v>
@@ -3755,10 +3755,10 @@
         <v>132</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C107" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E107" t="s">
         <v>146</v>
@@ -3769,10 +3769,10 @@
         <v>132</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C108" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E108" t="s">
         <v>146</v>
@@ -3783,10 +3783,10 @@
         <v>132</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C109" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E109" t="s">
         <v>146</v>
@@ -3797,10 +3797,10 @@
         <v>132</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C110" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E110" t="s">
         <v>146</v>
@@ -3811,10 +3811,10 @@
         <v>132</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C111" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E111" t="s">
         <v>146</v>
@@ -3825,10 +3825,10 @@
         <v>132</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C112" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E112" t="s">
         <v>146</v>
@@ -3839,10 +3839,10 @@
         <v>132</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C113" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E113" t="s">
         <v>146</v>
@@ -3853,10 +3853,10 @@
         <v>132</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C114" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E114" t="s">
         <v>146</v>
@@ -3867,10 +3867,10 @@
         <v>132</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C115" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E115" t="s">
         <v>146</v>
@@ -3881,10 +3881,10 @@
         <v>132</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C116" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E116" t="s">
         <v>146</v>
@@ -3895,10 +3895,10 @@
         <v>132</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C117" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E117" t="s">
         <v>146</v>
@@ -3909,10 +3909,10 @@
         <v>132</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C118" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E118" t="s">
         <v>146</v>
@@ -3923,10 +3923,10 @@
         <v>132</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C119" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E119" t="s">
         <v>146</v>
@@ -3937,10 +3937,10 @@
         <v>132</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C120" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E120" t="s">
         <v>146</v>
@@ -3951,10 +3951,10 @@
         <v>132</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C121" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E121" t="s">
         <v>146</v>
@@ -3965,10 +3965,10 @@
         <v>132</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C122" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E122" t="s">
         <v>146</v>
@@ -3979,10 +3979,10 @@
         <v>132</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C123" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E123" t="s">
         <v>146</v>
@@ -3993,10 +3993,10 @@
         <v>132</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C124" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E124" t="s">
         <v>146</v>
@@ -4007,10 +4007,10 @@
         <v>132</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C125" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E125" t="s">
         <v>146</v>
@@ -4021,10 +4021,10 @@
         <v>132</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C126" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E126" t="s">
         <v>146</v>
@@ -4035,10 +4035,10 @@
         <v>132</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C127" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E127" t="s">
         <v>146</v>
@@ -4049,10 +4049,10 @@
         <v>132</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C128" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E128" t="s">
         <v>146</v>
@@ -4063,10 +4063,10 @@
         <v>132</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C129" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E129" t="s">
         <v>146</v>
@@ -4077,10 +4077,10 @@
         <v>132</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C130" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E130" t="s">
         <v>146</v>
@@ -4091,10 +4091,10 @@
         <v>132</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C131" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E131" t="s">
         <v>146</v>
@@ -4105,10 +4105,10 @@
         <v>132</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C132" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E132" t="s">
         <v>146</v>
@@ -4119,10 +4119,10 @@
         <v>132</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C133" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E133" t="s">
         <v>146</v>
@@ -4133,10 +4133,10 @@
         <v>132</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C134" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E134" t="s">
         <v>146</v>
@@ -4147,10 +4147,10 @@
         <v>132</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C135" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E135" t="s">
         <v>146</v>
@@ -4161,10 +4161,10 @@
         <v>132</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C136" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="E136" t="s">
         <v>149</v>
@@ -4175,10 +4175,10 @@
         <v>132</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C137" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E137" t="s">
         <v>149</v>
@@ -4189,10 +4189,10 @@
         <v>132</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C138" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E138" t="s">
         <v>149</v>
@@ -4203,10 +4203,10 @@
         <v>132</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C139" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E139" t="s">
         <v>149</v>
@@ -4217,10 +4217,10 @@
         <v>132</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C140" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="E140" t="s">
         <v>149</v>
@@ -4231,10 +4231,10 @@
         <v>132</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C141" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="E141" t="s">
         <v>149</v>
@@ -4245,10 +4245,10 @@
         <v>132</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C142" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E142" t="s">
         <v>149</v>
@@ -4259,10 +4259,10 @@
         <v>132</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C143" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E143" t="s">
         <v>149</v>
@@ -4273,10 +4273,10 @@
         <v>132</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C144" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E144" t="s">
         <v>149</v>
@@ -4287,10 +4287,10 @@
         <v>132</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C145" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="E145" t="s">
         <v>149</v>
@@ -4301,10 +4301,10 @@
         <v>132</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C146" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E146" t="s">
         <v>149</v>
@@ -4315,10 +4315,10 @@
         <v>132</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C147" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E147" t="s">
         <v>149</v>
@@ -4329,10 +4329,10 @@
         <v>132</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C148" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="E148" t="s">
         <v>149</v>
@@ -4343,10 +4343,10 @@
         <v>132</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C149" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E149" t="s">
         <v>149</v>
@@ -4357,10 +4357,10 @@
         <v>132</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C150" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="E150" t="s">
         <v>149</v>
@@ -4371,10 +4371,10 @@
         <v>132</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C151" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="E151" t="s">
         <v>147</v>
@@ -4385,10 +4385,10 @@
         <v>132</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C152" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E152" t="s">
         <v>147</v>
@@ -4399,10 +4399,10 @@
         <v>132</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C153" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E153" t="s">
         <v>147</v>
@@ -4413,10 +4413,10 @@
         <v>132</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C154" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="E154" t="s">
         <v>147</v>
@@ -4427,10 +4427,10 @@
         <v>132</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C155" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E155" t="s">
         <v>147</v>
@@ -4441,10 +4441,10 @@
         <v>132</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C156" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="E156" t="s">
         <v>147</v>
@@ -4455,10 +4455,10 @@
         <v>132</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C157" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="E157" t="s">
         <v>147</v>
@@ -4469,10 +4469,10 @@
         <v>132</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C158" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E158" t="s">
         <v>147</v>
@@ -4483,10 +4483,10 @@
         <v>132</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C159" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="E159" t="s">
         <v>147</v>
@@ -4497,10 +4497,10 @@
         <v>132</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C160" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E160" t="s">
         <v>147</v>
@@ -4511,10 +4511,10 @@
         <v>132</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C161" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E161" t="s">
         <v>147</v>
@@ -4525,10 +4525,10 @@
         <v>132</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C162" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E162" t="s">
         <v>147</v>
@@ -4539,10 +4539,10 @@
         <v>132</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C163" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E163" t="s">
         <v>147</v>
@@ -4553,10 +4553,10 @@
         <v>132</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C164" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E164" t="s">
         <v>147</v>
@@ -4567,10 +4567,10 @@
         <v>132</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C165" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="E165" t="s">
         <v>147</v>
@@ -4581,7 +4581,7 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="34" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B167" s="4">
         <v>101</v>
@@ -4590,12 +4590,12 @@
         <v>101</v>
       </c>
       <c r="F167" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="34" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B168" s="4">
         <v>102</v>
@@ -4604,12 +4604,12 @@
         <v>102</v>
       </c>
       <c r="F168" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="34" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B169" s="4">
         <v>103</v>
@@ -4618,12 +4618,12 @@
         <v>103</v>
       </c>
       <c r="F169" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="34" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B170" s="4">
         <v>104</v>
@@ -4632,12 +4632,12 @@
         <v>104</v>
       </c>
       <c r="F170" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="34" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B171" s="4">
         <v>105</v>
@@ -4646,12 +4646,12 @@
         <v>105</v>
       </c>
       <c r="F171" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="34" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B172" s="4">
         <v>106</v>
@@ -4665,7 +4665,7 @@
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="34" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B173" s="4">
         <v>107</v>
@@ -4674,12 +4674,12 @@
         <v>107</v>
       </c>
       <c r="F173" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="34" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B174" s="4">
         <v>108</v>
@@ -4688,12 +4688,12 @@
         <v>108</v>
       </c>
       <c r="F174" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" s="34" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B175" s="4">
         <v>109</v>
@@ -4702,12 +4702,12 @@
         <v>109</v>
       </c>
       <c r="F175" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="34" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B176" s="4">
         <v>110</v>
@@ -4716,12 +4716,12 @@
         <v>110</v>
       </c>
       <c r="F176" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="34" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B177" s="4">
         <v>111</v>
@@ -4730,12 +4730,12 @@
         <v>111</v>
       </c>
       <c r="F177" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="34" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B178" s="4">
         <v>112</v>
@@ -4744,12 +4744,12 @@
         <v>112</v>
       </c>
       <c r="F178" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="34" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B179" s="4">
         <v>113</v>
@@ -4758,12 +4758,12 @@
         <v>113</v>
       </c>
       <c r="F179" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="34" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B180" s="4">
         <v>114</v>
@@ -4772,12 +4772,12 @@
         <v>114</v>
       </c>
       <c r="F180" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="34" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B181" s="4">
         <v>115</v>
@@ -4786,12 +4786,12 @@
         <v>115</v>
       </c>
       <c r="F181" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="34" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B182" s="4">
         <v>116</v>
@@ -4800,12 +4800,12 @@
         <v>116</v>
       </c>
       <c r="F182" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="34" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B183" s="4">
         <v>117</v>
@@ -4814,12 +4814,12 @@
         <v>117</v>
       </c>
       <c r="F183" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="34" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B184" s="4">
         <v>118</v>
@@ -4828,12 +4828,12 @@
         <v>118</v>
       </c>
       <c r="F184" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="34" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B185" s="4">
         <v>119</v>
@@ -4842,12 +4842,12 @@
         <v>119</v>
       </c>
       <c r="F185" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="34" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B186" s="4">
         <v>120</v>
@@ -4856,12 +4856,12 @@
         <v>120</v>
       </c>
       <c r="F186" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="34" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B187" s="4">
         <v>121</v>
@@ -4870,12 +4870,12 @@
         <v>121</v>
       </c>
       <c r="F187" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" s="34" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B188" s="4">
         <v>122</v>
@@ -4884,12 +4884,12 @@
         <v>122</v>
       </c>
       <c r="F188" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="34" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B189" s="4">
         <v>123</v>
@@ -4898,12 +4898,12 @@
         <v>123</v>
       </c>
       <c r="F189" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="34" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B190" s="4">
         <v>124</v>
@@ -4912,12 +4912,12 @@
         <v>124</v>
       </c>
       <c r="F190" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" s="34" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B191" s="4">
         <v>125</v>
@@ -4926,12 +4926,12 @@
         <v>125</v>
       </c>
       <c r="F191" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" s="34" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B192" s="4">
         <v>126</v>
@@ -4940,12 +4940,12 @@
         <v>126</v>
       </c>
       <c r="F192" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" s="34" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B193" s="4">
         <v>127</v>
@@ -4954,12 +4954,12 @@
         <v>127</v>
       </c>
       <c r="F193" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" s="34" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B194" s="4">
         <v>128</v>
@@ -4968,12 +4968,12 @@
         <v>128</v>
       </c>
       <c r="F194" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" s="34" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B195" s="4">
         <v>129</v>
@@ -4982,12 +4982,12 @@
         <v>129</v>
       </c>
       <c r="F195" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" s="34" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B196" s="4">
         <v>130</v>
@@ -4996,12 +4996,12 @@
         <v>130</v>
       </c>
       <c r="F196" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" s="34" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B197" s="4">
         <v>131</v>
@@ -5010,12 +5010,12 @@
         <v>131</v>
       </c>
       <c r="F197" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" s="34" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B198" s="4">
         <v>132</v>
@@ -5024,12 +5024,12 @@
         <v>132</v>
       </c>
       <c r="F198" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" s="34" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B199" s="4">
         <v>133</v>
@@ -5038,12 +5038,12 @@
         <v>133</v>
       </c>
       <c r="F199" t="s">
-        <v>151</v>
+        <v>294</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" s="34" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B200" s="4">
         <v>134</v>
@@ -5052,12 +5052,12 @@
         <v>134</v>
       </c>
       <c r="F200" t="s">
-        <v>159</v>
+        <v>295</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" s="34" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B201" s="4">
         <v>135</v>
@@ -5066,12 +5066,12 @@
         <v>135</v>
       </c>
       <c r="F201" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" s="34" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B202" s="4">
         <v>136</v>
@@ -5080,12 +5080,12 @@
         <v>136</v>
       </c>
       <c r="F202" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" s="34" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B203" s="4">
         <v>137</v>
@@ -5094,12 +5094,12 @@
         <v>137</v>
       </c>
       <c r="F203" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" s="34" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B204" s="4">
         <v>138</v>
@@ -5108,12 +5108,12 @@
         <v>138</v>
       </c>
       <c r="F204" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" s="34" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B205" s="4">
         <v>139</v>
@@ -5122,12 +5122,12 @@
         <v>139</v>
       </c>
       <c r="F205" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" s="34" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B206" s="4">
         <v>140</v>
@@ -5136,12 +5136,12 @@
         <v>140</v>
       </c>
       <c r="F206" t="s">
-        <v>150</v>
+        <v>296</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" s="34" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B207" s="4">
         <v>141</v>
@@ -5150,12 +5150,12 @@
         <v>141</v>
       </c>
       <c r="F207" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" s="34" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B208" s="4">
         <v>142</v>
@@ -5164,12 +5164,12 @@
         <v>142</v>
       </c>
       <c r="F208" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" s="34" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B209" s="4">
         <v>143</v>
@@ -5178,12 +5178,12 @@
         <v>143</v>
       </c>
       <c r="F209" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" s="34" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B210" s="4">
         <v>144</v>
@@ -5192,12 +5192,12 @@
         <v>144</v>
       </c>
       <c r="F210" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" s="34" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B211" s="4">
         <v>145</v>
@@ -5206,12 +5206,12 @@
         <v>145</v>
       </c>
       <c r="F211" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" s="34" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B212" s="4">
         <v>146</v>
@@ -5220,12 +5220,12 @@
         <v>146</v>
       </c>
       <c r="F212" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" s="34" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B213" s="4">
         <v>147</v>
@@ -5234,12 +5234,12 @@
         <v>147</v>
       </c>
       <c r="F213" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" s="34" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B214" s="4">
         <v>148</v>
@@ -5248,12 +5248,12 @@
         <v>148</v>
       </c>
       <c r="F214" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" s="34" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B215" s="4">
         <v>149</v>
@@ -5262,12 +5262,12 @@
         <v>149</v>
       </c>
       <c r="F215" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" s="34" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B216" s="4">
         <v>150</v>
@@ -5276,12 +5276,12 @@
         <v>150</v>
       </c>
       <c r="F216" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" s="34" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B217" s="4">
         <v>151</v>
@@ -5290,12 +5290,12 @@
         <v>151</v>
       </c>
       <c r="F217" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" s="34" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B218" s="4">
         <v>152</v>
@@ -5304,12 +5304,12 @@
         <v>152</v>
       </c>
       <c r="F218" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" s="34" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B219" s="4">
         <v>153</v>
@@ -5318,12 +5318,12 @@
         <v>153</v>
       </c>
       <c r="F219" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" s="34" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B220" s="4">
         <v>154</v>
@@ -5332,12 +5332,12 @@
         <v>154</v>
       </c>
       <c r="F220" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" s="34" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B221" s="4">
         <v>155</v>
@@ -5346,12 +5346,12 @@
         <v>155</v>
       </c>
       <c r="F221" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" s="34" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B222" s="4">
         <v>156</v>
@@ -5360,12 +5360,12 @@
         <v>156</v>
       </c>
       <c r="F222" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" s="34" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B223" s="4">
         <v>157</v>
@@ -5374,12 +5374,12 @@
         <v>157</v>
       </c>
       <c r="F223" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" s="34" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B224" s="4">
         <v>158</v>
@@ -5388,12 +5388,12 @@
         <v>158</v>
       </c>
       <c r="F224" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" s="34" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B225" s="4">
         <v>159</v>
@@ -5402,12 +5402,12 @@
         <v>159</v>
       </c>
       <c r="F225" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" s="34" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B226" s="4">
         <v>160</v>
@@ -5416,12 +5416,12 @@
         <v>160</v>
       </c>
       <c r="F226" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" s="34" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B227" s="4">
         <v>161</v>
@@ -5430,12 +5430,12 @@
         <v>161</v>
       </c>
       <c r="F227" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" s="34" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B228" s="4">
         <v>162</v>
@@ -5444,12 +5444,12 @@
         <v>162</v>
       </c>
       <c r="F228" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" s="34" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B229" s="4">
         <v>163</v>
@@ -5458,12 +5458,12 @@
         <v>163</v>
       </c>
       <c r="F229" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" s="34" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B230" s="4">
         <v>164</v>
@@ -5472,12 +5472,12 @@
         <v>164</v>
       </c>
       <c r="F230" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" s="34" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B231" s="4">
         <v>165</v>
@@ -5486,12 +5486,12 @@
         <v>165</v>
       </c>
       <c r="F231" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" s="34" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B232" s="4">
         <v>166</v>
@@ -5500,12 +5500,12 @@
         <v>166</v>
       </c>
       <c r="F232" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" s="34" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B233" s="4">
         <v>167</v>
@@ -5514,12 +5514,12 @@
         <v>167</v>
       </c>
       <c r="F233" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" s="34" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B234" s="4">
         <v>168</v>
@@ -5528,12 +5528,12 @@
         <v>168</v>
       </c>
       <c r="F234" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" s="34" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B235" s="4">
         <v>169</v>
@@ -5542,12 +5542,12 @@
         <v>169</v>
       </c>
       <c r="F235" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" s="34" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B236" s="4">
         <v>170</v>
@@ -5556,12 +5556,12 @@
         <v>170</v>
       </c>
       <c r="F236" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" s="34" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B237" s="4">
         <v>171</v>
@@ -5570,12 +5570,12 @@
         <v>171</v>
       </c>
       <c r="F237" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" s="34" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B238" s="4">
         <v>172</v>
@@ -5584,12 +5584,12 @@
         <v>172</v>
       </c>
       <c r="F238" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" s="34" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B239" s="4">
         <v>173</v>
@@ -5598,12 +5598,12 @@
         <v>173</v>
       </c>
       <c r="F239" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" s="34" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B240" s="4">
         <v>174</v>
@@ -5612,12 +5612,12 @@
         <v>174</v>
       </c>
       <c r="F240" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" s="34" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B241" s="4">
         <v>175</v>
@@ -5626,12 +5626,12 @@
         <v>175</v>
       </c>
       <c r="F241" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" s="34" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B242" s="4">
         <v>176</v>
@@ -5640,12 +5640,12 @@
         <v>176</v>
       </c>
       <c r="F242" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" s="34" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B243" s="4">
         <v>177</v>
@@ -5654,12 +5654,12 @@
         <v>177</v>
       </c>
       <c r="F243" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244" s="34" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B244" s="4">
         <v>178</v>
@@ -5668,12 +5668,12 @@
         <v>178</v>
       </c>
       <c r="F244" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" s="34" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B245" s="4">
         <v>179</v>
@@ -5682,12 +5682,12 @@
         <v>179</v>
       </c>
       <c r="F245" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" s="34" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B246" s="4">
         <v>180</v>
@@ -5696,12 +5696,12 @@
         <v>180</v>
       </c>
       <c r="F246" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" s="34" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B247" s="4">
         <v>181</v>
@@ -5710,12 +5710,12 @@
         <v>181</v>
       </c>
       <c r="F247" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248" s="34" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B248" s="4">
         <v>182</v>
@@ -5724,12 +5724,12 @@
         <v>182</v>
       </c>
       <c r="F248" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" s="34" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B249" s="4">
         <v>183</v>
@@ -5738,12 +5738,12 @@
         <v>183</v>
       </c>
       <c r="F249" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" s="34" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B250" s="4">
         <v>184</v>
@@ -5752,12 +5752,12 @@
         <v>184</v>
       </c>
       <c r="F250" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" s="34" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B251" s="4">
         <v>185</v>
@@ -5766,12 +5766,12 @@
         <v>185</v>
       </c>
       <c r="F251" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" s="34" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B252" s="4">
         <v>186</v>
@@ -5780,12 +5780,12 @@
         <v>186</v>
       </c>
       <c r="F252" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" s="34" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B253" s="4">
         <v>187</v>
@@ -5794,12 +5794,12 @@
         <v>187</v>
       </c>
       <c r="F253" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254" s="34" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B254" s="4">
         <v>188</v>
@@ -5808,12 +5808,12 @@
         <v>188</v>
       </c>
       <c r="F254" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255" s="34" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B255" s="4">
         <v>189</v>
@@ -5822,12 +5822,12 @@
         <v>189</v>
       </c>
       <c r="F255" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256" s="34" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B256" s="4">
         <v>190</v>
@@ -5836,12 +5836,12 @@
         <v>190</v>
       </c>
       <c r="F256" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257" s="34" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B257" s="4">
         <v>191</v>
@@ -5850,12 +5850,12 @@
         <v>191</v>
       </c>
       <c r="F257" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258" s="34" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B258" s="4">
         <v>192</v>
@@ -5864,12 +5864,12 @@
         <v>192</v>
       </c>
       <c r="F258" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259" s="34" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B259" s="4">
         <v>193</v>
@@ -5878,12 +5878,12 @@
         <v>193</v>
       </c>
       <c r="F259" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260" s="34" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B260" s="4">
         <v>194</v>
@@ -5892,12 +5892,12 @@
         <v>194</v>
       </c>
       <c r="F260" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261" s="34" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B261" s="4">
         <v>195</v>
@@ -5906,12 +5906,12 @@
         <v>195</v>
       </c>
       <c r="F261" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262" s="34" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B262" s="4">
         <v>196</v>
@@ -5920,12 +5920,12 @@
         <v>196</v>
       </c>
       <c r="F262" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263" s="34" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B263" s="4">
         <v>197</v>
@@ -5934,12 +5934,12 @@
         <v>197</v>
       </c>
       <c r="F263" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264" s="34" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B264" s="4">
         <v>198</v>
@@ -5948,12 +5948,12 @@
         <v>198</v>
       </c>
       <c r="F264" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265" s="34" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B265" s="4">
         <v>199</v>
@@ -5962,12 +5962,12 @@
         <v>199</v>
       </c>
       <c r="F265" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266" s="34" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B266" s="4">
         <v>200</v>
@@ -5976,12 +5976,12 @@
         <v>200</v>
       </c>
       <c r="F266" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267" s="34" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B267" s="4">
         <v>201</v>
@@ -5990,12 +5990,12 @@
         <v>201</v>
       </c>
       <c r="F267" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268" s="34" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B268" s="4">
         <v>202</v>
@@ -6004,12 +6004,12 @@
         <v>202</v>
       </c>
       <c r="F268" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269" s="34" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B269" s="4">
         <v>203</v>
@@ -6018,12 +6018,12 @@
         <v>203</v>
       </c>
       <c r="F269" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270" s="34" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B270" s="4">
         <v>204</v>
@@ -6032,12 +6032,12 @@
         <v>204</v>
       </c>
       <c r="F270" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271" s="34" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B271" s="4">
         <v>205</v>
@@ -6046,12 +6046,12 @@
         <v>205</v>
       </c>
       <c r="F271" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272" s="34" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B272" s="4">
         <v>206</v>
@@ -6060,12 +6060,12 @@
         <v>206</v>
       </c>
       <c r="F272" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273" s="34" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B273" s="4">
         <v>207</v>
@@ -6074,12 +6074,12 @@
         <v>207</v>
       </c>
       <c r="F273" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274" s="34" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B274" s="4">
         <v>208</v>
@@ -6088,12 +6088,12 @@
         <v>208</v>
       </c>
       <c r="F274" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275" s="34" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B275" s="4">
         <v>209</v>
@@ -6102,12 +6102,12 @@
         <v>209</v>
       </c>
       <c r="F275" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276" s="34" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B276" s="4">
         <v>210</v>
@@ -6116,12 +6116,12 @@
         <v>210</v>
       </c>
       <c r="F276" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277" s="34" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B277" s="4">
         <v>211</v>
@@ -6130,12 +6130,12 @@
         <v>211</v>
       </c>
       <c r="F277" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278" s="34" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B278" s="4">
         <v>212</v>
@@ -6144,12 +6144,12 @@
         <v>212</v>
       </c>
       <c r="F278" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279" s="34" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B279" s="4">
         <v>213</v>
@@ -6158,12 +6158,12 @@
         <v>213</v>
       </c>
       <c r="F279" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280" s="34" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B280" s="4">
         <v>214</v>
@@ -6172,12 +6172,12 @@
         <v>214</v>
       </c>
       <c r="F280" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281" s="34" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B281" s="4">
         <v>215</v>
@@ -6186,12 +6186,12 @@
         <v>215</v>
       </c>
       <c r="F281" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282" s="34" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B282" s="4">
         <v>216</v>
@@ -6200,12 +6200,12 @@
         <v>216</v>
       </c>
       <c r="F282" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283" s="34" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B283" s="4">
         <v>217</v>
@@ -6214,12 +6214,12 @@
         <v>217</v>
       </c>
       <c r="F283" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284" s="34" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B284" s="4">
         <v>218</v>
@@ -6228,12 +6228,12 @@
         <v>218</v>
       </c>
       <c r="F284" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285" s="34" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B285" s="4">
         <v>219</v>
@@ -6242,12 +6242,12 @@
         <v>219</v>
       </c>
       <c r="F285" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286" s="34" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B286" s="4">
         <v>220</v>
@@ -6256,12 +6256,12 @@
         <v>220</v>
       </c>
       <c r="F286" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287" s="34" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B287" s="4">
         <v>221</v>
@@ -6270,12 +6270,12 @@
         <v>221</v>
       </c>
       <c r="F287" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A288" s="34" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B288" s="4">
         <v>222</v>
@@ -6284,12 +6284,12 @@
         <v>222</v>
       </c>
       <c r="F288" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A289" s="34" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B289" s="4">
         <v>223</v>
@@ -6298,12 +6298,12 @@
         <v>223</v>
       </c>
       <c r="F289" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290" s="34" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B290" s="4">
         <v>224</v>
@@ -6312,12 +6312,12 @@
         <v>224</v>
       </c>
       <c r="F290" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A291" s="34" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B291" s="4">
         <v>225</v>
@@ -6326,12 +6326,12 @@
         <v>225</v>
       </c>
       <c r="F291" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A292" s="34" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B292" s="4">
         <v>226</v>
@@ -6340,12 +6340,12 @@
         <v>226</v>
       </c>
       <c r="F292" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A293" s="34" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B293" s="4">
         <v>227</v>
@@ -6354,12 +6354,12 @@
         <v>227</v>
       </c>
       <c r="F293" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A294" s="34" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B294" s="4">
         <v>228</v>
@@ -6368,12 +6368,12 @@
         <v>228</v>
       </c>
       <c r="F294" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A295" s="34" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B295" s="4">
         <v>229</v>
@@ -6382,12 +6382,12 @@
         <v>229</v>
       </c>
       <c r="F295" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A296" s="34" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B296" s="4">
         <v>230</v>
@@ -6396,12 +6396,12 @@
         <v>230</v>
       </c>
       <c r="F296" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297" s="34" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B297" s="4">
         <v>231</v>
@@ -6410,12 +6410,12 @@
         <v>231</v>
       </c>
       <c r="F297" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A298" s="34" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B298" s="4">
         <v>232</v>
@@ -6424,12 +6424,12 @@
         <v>232</v>
       </c>
       <c r="F298" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A299" s="34" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B299" s="4">
         <v>233</v>
@@ -6438,12 +6438,12 @@
         <v>233</v>
       </c>
       <c r="F299" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A300" s="34" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B300" s="4">
         <v>234</v>
@@ -6452,12 +6452,12 @@
         <v>234</v>
       </c>
       <c r="F300" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A301" s="34" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B301" s="4">
         <v>235</v>
@@ -6466,7 +6466,7 @@
         <v>235</v>
       </c>
       <c r="F301" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.25">
@@ -6992,7 +6992,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="49" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="52" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.25" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7009,10 +7009,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C2" t="s">
         <v>32</v>
